--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>367500</v>
+        <v>650500</v>
       </c>
       <c r="E8" s="3">
-        <v>125300</v>
+        <v>358500</v>
       </c>
       <c r="F8" s="3">
-        <v>44800</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>122200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>264500</v>
+        <v>499000</v>
       </c>
       <c r="E9" s="3">
-        <v>85800</v>
+        <v>258000</v>
       </c>
       <c r="F9" s="3">
-        <v>33400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>83700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>32500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>103000</v>
+        <v>151500</v>
       </c>
       <c r="E10" s="3">
-        <v>39500</v>
+        <v>100500</v>
       </c>
       <c r="F10" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>38500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>17800</v>
+        <v>28700</v>
       </c>
       <c r="E12" s="3">
-        <v>8700</v>
+        <v>17400</v>
       </c>
       <c r="F12" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>8500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,12 +918,15 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,12 +951,15 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>356000</v>
+        <v>606900</v>
       </c>
       <c r="E17" s="3">
-        <v>110100</v>
+        <v>347200</v>
       </c>
       <c r="F17" s="3">
-        <v>42800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>107400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>41700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11500</v>
+        <v>43500</v>
       </c>
       <c r="E18" s="3">
-        <v>15100</v>
+        <v>11200</v>
       </c>
       <c r="F18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>14800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,22 +1050,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13200</v>
+        <v>50700</v>
       </c>
       <c r="E21" s="3">
-        <v>15700</v>
+        <v>12800</v>
       </c>
       <c r="F21" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1104,27 +1143,30 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12800</v>
+        <v>47400</v>
       </c>
       <c r="E23" s="3">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="F23" s="3">
+        <v>15100</v>
+      </c>
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,24 +1179,27 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
+        <v>6300</v>
       </c>
       <c r="E24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,24 +1245,27 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9400</v>
+        <v>41100</v>
       </c>
       <c r="E26" s="3">
-        <v>13400</v>
+        <v>9100</v>
       </c>
       <c r="F26" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,24 +1278,27 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7300</v>
+        <v>40900</v>
       </c>
       <c r="E27" s="3">
-        <v>1200</v>
+        <v>7100</v>
       </c>
       <c r="F27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1314,12 +1374,15 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,23 +1443,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1407,24 +1476,27 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7300</v>
+        <v>40900</v>
       </c>
       <c r="E33" s="3">
-        <v>1200</v>
+        <v>7100</v>
       </c>
       <c r="F33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,24 +1542,27 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7300</v>
+        <v>40900</v>
       </c>
       <c r="E35" s="3">
-        <v>1200</v>
+        <v>7100</v>
       </c>
       <c r="F35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>134900</v>
+        <v>136300</v>
       </c>
       <c r="E41" s="3">
-        <v>40200</v>
+        <v>131800</v>
       </c>
       <c r="F41" s="3">
-        <v>22500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>39200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>22000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,17 +1676,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24200</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>52700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>23700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1617,26 +1706,29 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69600</v>
+        <v>148000</v>
       </c>
       <c r="E43" s="3">
-        <v>44700</v>
+        <v>68000</v>
       </c>
       <c r="F43" s="3">
-        <v>11600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>43700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33300</v>
+        <v>58600</v>
       </c>
       <c r="E44" s="3">
-        <v>7300</v>
+        <v>32500</v>
       </c>
       <c r="F44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11000</v>
+        <v>11900</v>
       </c>
       <c r="E45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>2000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>273000</v>
+        <v>407500</v>
       </c>
       <c r="E46" s="3">
-        <v>95500</v>
+        <v>266700</v>
       </c>
       <c r="F46" s="3">
-        <v>39600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>93300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>38700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,24 +1874,27 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,17 +1907,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1827,12 +1937,15 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,24 +2006,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>275900</v>
+        <v>423600</v>
       </c>
       <c r="E54" s="3">
-        <v>96400</v>
+        <v>269500</v>
       </c>
       <c r="F54" s="3">
-        <v>40500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>94100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>39500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>78700</v>
+        <v>146200</v>
       </c>
       <c r="E57" s="3">
-        <v>41800</v>
+        <v>76900</v>
       </c>
       <c r="F57" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>40900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
-        <v>5200</v>
-      </c>
       <c r="F58" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42700</v>
+        <v>65700</v>
       </c>
       <c r="E59" s="3">
-        <v>15000</v>
+        <v>41700</v>
       </c>
       <c r="F59" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>14700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>122200</v>
+        <v>228900</v>
       </c>
       <c r="E60" s="3">
-        <v>62000</v>
+        <v>119400</v>
       </c>
       <c r="F60" s="3">
-        <v>19600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>60600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>19200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122700</v>
+        <v>231800</v>
       </c>
       <c r="E66" s="3">
-        <v>62100</v>
+        <v>119900</v>
       </c>
       <c r="F66" s="3">
-        <v>19600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>60700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>19200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>21700</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>21700</v>
+        <v>21200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>21200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13700</v>
+        <v>27400</v>
       </c>
       <c r="E72" s="3">
-        <v>-23100</v>
+        <v>-13400</v>
       </c>
       <c r="F72" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-22500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-34700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,24 +2744,27 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>153200</v>
+        <v>191900</v>
       </c>
       <c r="E76" s="3">
-        <v>12600</v>
+        <v>149700</v>
       </c>
       <c r="F76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,24 +2848,27 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7300</v>
+        <v>40900</v>
       </c>
       <c r="E81" s="3">
-        <v>1200</v>
+        <v>7100</v>
       </c>
       <c r="F81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,24 +3094,27 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31900</v>
+        <v>34400</v>
       </c>
       <c r="E89" s="3">
-        <v>17800</v>
+        <v>31100</v>
       </c>
       <c r="F89" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2000</v>
+        <v>-9000</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-1900</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21800</v>
+        <v>-37600</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-21200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,13 +3292,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-6500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>86800</v>
+        <v>6800</v>
       </c>
       <c r="E100" s="3">
+        <v>84700</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>1800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>99000</v>
+        <v>4600</v>
       </c>
       <c r="E102" s="3">
-        <v>17700</v>
+        <v>96600</v>
       </c>
       <c r="F102" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>4200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>650500</v>
+        <v>675000</v>
       </c>
       <c r="E8" s="3">
-        <v>358500</v>
+        <v>372000</v>
       </c>
       <c r="F8" s="3">
-        <v>122200</v>
+        <v>126800</v>
       </c>
       <c r="G8" s="3">
-        <v>43700</v>
+        <v>45400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>499000</v>
+        <v>517800</v>
       </c>
       <c r="E9" s="3">
-        <v>258000</v>
+        <v>267700</v>
       </c>
       <c r="F9" s="3">
-        <v>83700</v>
+        <v>86900</v>
       </c>
       <c r="G9" s="3">
-        <v>32500</v>
+        <v>33800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>151500</v>
+        <v>157200</v>
       </c>
       <c r="E10" s="3">
-        <v>100500</v>
+        <v>104200</v>
       </c>
       <c r="F10" s="3">
-        <v>38500</v>
+        <v>40000</v>
       </c>
       <c r="G10" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>28700</v>
+        <v>29800</v>
       </c>
       <c r="E12" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="F12" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="G12" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>606900</v>
+        <v>629800</v>
       </c>
       <c r="E17" s="3">
-        <v>347200</v>
+        <v>360300</v>
       </c>
       <c r="F17" s="3">
-        <v>107400</v>
+        <v>111500</v>
       </c>
       <c r="G17" s="3">
-        <v>41700</v>
+        <v>43300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43500</v>
+        <v>45200</v>
       </c>
       <c r="E18" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="F18" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="G18" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
         <v>1300</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>50700</v>
+        <v>52600</v>
       </c>
       <c r="E21" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="F21" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="G21" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>47400</v>
+        <v>49200</v>
       </c>
       <c r="E23" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="F23" s="3">
-        <v>15100</v>
+        <v>15700</v>
       </c>
       <c r="G23" s="3">
         <v>2000</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="E24" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F24" s="3">
         <v>2100</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>41100</v>
+        <v>42700</v>
       </c>
       <c r="E26" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="F26" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="G26" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,13 +1288,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="E27" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F27" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
         <v>-1300</v>
@@ -1486,13 +1486,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="E33" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F33" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
@@ -1552,13 +1552,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="E35" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F35" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>136300</v>
+        <v>141200</v>
       </c>
       <c r="E41" s="3">
-        <v>131800</v>
+        <v>136600</v>
       </c>
       <c r="F41" s="3">
-        <v>39200</v>
+        <v>40700</v>
       </c>
       <c r="G41" s="3">
-        <v>22000</v>
+        <v>22800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,10 +1686,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52700</v>
+        <v>54600</v>
       </c>
       <c r="E42" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>148000</v>
+        <v>153300</v>
       </c>
       <c r="E43" s="3">
-        <v>68000</v>
+        <v>70400</v>
       </c>
       <c r="F43" s="3">
-        <v>43700</v>
+        <v>45200</v>
       </c>
       <c r="G43" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58600</v>
+        <v>60700</v>
       </c>
       <c r="E44" s="3">
-        <v>32500</v>
+        <v>33700</v>
       </c>
       <c r="F44" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="G44" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="E45" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="F45" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>407500</v>
+        <v>422300</v>
       </c>
       <c r="E46" s="3">
-        <v>266700</v>
+        <v>276300</v>
       </c>
       <c r="F46" s="3">
-        <v>93300</v>
+        <v>96600</v>
       </c>
       <c r="G46" s="3">
-        <v>38700</v>
+        <v>40100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="E48" s="3">
         <v>1600</v>
@@ -2016,10 +2016,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>423600</v>
+        <v>439000</v>
       </c>
       <c r="E54" s="3">
-        <v>269500</v>
+        <v>279300</v>
       </c>
       <c r="F54" s="3">
-        <v>94100</v>
+        <v>97500</v>
       </c>
       <c r="G54" s="3">
-        <v>39500</v>
+        <v>40900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>146200</v>
+        <v>151500</v>
       </c>
       <c r="E57" s="3">
-        <v>76900</v>
+        <v>79700</v>
       </c>
       <c r="F57" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="G57" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
       </c>
       <c r="F58" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G58" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65700</v>
+        <v>68100</v>
       </c>
       <c r="E59" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="F59" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="G59" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>228900</v>
+        <v>237100</v>
       </c>
       <c r="E60" s="3">
-        <v>119400</v>
+        <v>123700</v>
       </c>
       <c r="F60" s="3">
-        <v>60600</v>
+        <v>62800</v>
       </c>
       <c r="G60" s="3">
-        <v>19200</v>
+        <v>19900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>231800</v>
+        <v>240200</v>
       </c>
       <c r="E66" s="3">
-        <v>119900</v>
+        <v>124200</v>
       </c>
       <c r="F66" s="3">
-        <v>60700</v>
+        <v>62900</v>
       </c>
       <c r="G66" s="3">
-        <v>19200</v>
+        <v>19900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>21200</v>
+        <v>21900</v>
       </c>
       <c r="G70" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27400</v>
+        <v>28400</v>
       </c>
       <c r="E72" s="3">
-        <v>-13400</v>
+        <v>-13900</v>
       </c>
       <c r="F72" s="3">
-        <v>-22500</v>
+        <v>-23400</v>
       </c>
       <c r="G72" s="3">
-        <v>-34700</v>
+        <v>-36000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,13 +2754,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>191900</v>
+        <v>198800</v>
       </c>
       <c r="E76" s="3">
-        <v>149700</v>
+        <v>155100</v>
       </c>
       <c r="F76" s="3">
-        <v>12300</v>
+        <v>12800</v>
       </c>
       <c r="G76" s="3">
         <v>-900</v>
@@ -2858,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="E81" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F81" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34400</v>
+        <v>35700</v>
       </c>
       <c r="E89" s="3">
-        <v>31100</v>
+        <v>32300</v>
       </c>
       <c r="F89" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="G89" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,10 +3152,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -3251,10 +3251,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37600</v>
+        <v>-39100</v>
       </c>
       <c r="E94" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="E100" s="3">
-        <v>84700</v>
+        <v>87900</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E102" s="3">
-        <v>96600</v>
+        <v>100200</v>
       </c>
       <c r="F102" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="G102" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>675000</v>
+        <v>707000</v>
       </c>
       <c r="E8" s="3">
-        <v>372000</v>
+        <v>389600</v>
       </c>
       <c r="F8" s="3">
-        <v>126800</v>
+        <v>132800</v>
       </c>
       <c r="G8" s="3">
-        <v>45400</v>
+        <v>47500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>517800</v>
+        <v>542300</v>
       </c>
       <c r="E9" s="3">
-        <v>267700</v>
+        <v>280400</v>
       </c>
       <c r="F9" s="3">
-        <v>86900</v>
+        <v>91000</v>
       </c>
       <c r="G9" s="3">
-        <v>33800</v>
+        <v>35400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>157200</v>
+        <v>164700</v>
       </c>
       <c r="E10" s="3">
-        <v>104200</v>
+        <v>109200</v>
       </c>
       <c r="F10" s="3">
-        <v>40000</v>
+        <v>41900</v>
       </c>
       <c r="G10" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29800</v>
+        <v>31200</v>
       </c>
       <c r="E12" s="3">
-        <v>18000</v>
+        <v>18900</v>
       </c>
       <c r="F12" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="G12" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>629800</v>
+        <v>659700</v>
       </c>
       <c r="E17" s="3">
-        <v>360300</v>
+        <v>377400</v>
       </c>
       <c r="F17" s="3">
-        <v>111500</v>
+        <v>116800</v>
       </c>
       <c r="G17" s="3">
-        <v>43300</v>
+        <v>45400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45200</v>
+        <v>47300</v>
       </c>
       <c r="E18" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="F18" s="3">
-        <v>15300</v>
+        <v>16100</v>
       </c>
       <c r="G18" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>52600</v>
+        <v>55200</v>
       </c>
       <c r="E21" s="3">
-        <v>13300</v>
+        <v>13900</v>
       </c>
       <c r="F21" s="3">
-        <v>15900</v>
+        <v>16700</v>
       </c>
       <c r="G21" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49200</v>
+        <v>51600</v>
       </c>
       <c r="E23" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="F23" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="G23" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,13 +1189,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E24" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="F24" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G24" s="3">
         <v>-300</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42700</v>
+        <v>44700</v>
       </c>
       <c r="E26" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="F26" s="3">
-        <v>13500</v>
+        <v>14200</v>
       </c>
       <c r="G26" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="E27" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="F27" s="3">
         <v>1200</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1486,10 +1486,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="E33" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="F33" s="3">
         <v>1200</v>
@@ -1552,10 +1552,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="E35" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="F35" s="3">
         <v>1200</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141200</v>
+        <v>147900</v>
       </c>
       <c r="E41" s="3">
-        <v>136600</v>
+        <v>143000</v>
       </c>
       <c r="F41" s="3">
-        <v>40700</v>
+        <v>42600</v>
       </c>
       <c r="G41" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,10 +1686,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54600</v>
+        <v>57200</v>
       </c>
       <c r="E42" s="3">
-        <v>24500</v>
+        <v>25700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>153300</v>
+        <v>160600</v>
       </c>
       <c r="E43" s="3">
-        <v>70400</v>
+        <v>73800</v>
       </c>
       <c r="F43" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="G43" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60700</v>
+        <v>63600</v>
       </c>
       <c r="E44" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="F44" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="G44" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="E45" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="F45" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>422300</v>
+        <v>442300</v>
       </c>
       <c r="E46" s="3">
-        <v>276300</v>
+        <v>289400</v>
       </c>
       <c r="F46" s="3">
-        <v>96600</v>
+        <v>101200</v>
       </c>
       <c r="G46" s="3">
-        <v>40100</v>
+        <v>42000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="E48" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -1917,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>439000</v>
+        <v>459800</v>
       </c>
       <c r="E54" s="3">
-        <v>279300</v>
+        <v>292500</v>
       </c>
       <c r="F54" s="3">
-        <v>97500</v>
+        <v>102200</v>
       </c>
       <c r="G54" s="3">
-        <v>40900</v>
+        <v>42900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151500</v>
+        <v>158700</v>
       </c>
       <c r="E57" s="3">
-        <v>79700</v>
+        <v>83400</v>
       </c>
       <c r="F57" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="G57" s="3">
-        <v>10600</v>
+        <v>11100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68100</v>
+        <v>71300</v>
       </c>
       <c r="E59" s="3">
-        <v>43200</v>
+        <v>45200</v>
       </c>
       <c r="F59" s="3">
-        <v>15200</v>
+        <v>15900</v>
       </c>
       <c r="G59" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>237100</v>
+        <v>248400</v>
       </c>
       <c r="E60" s="3">
-        <v>123700</v>
+        <v>129600</v>
       </c>
       <c r="F60" s="3">
-        <v>62800</v>
+        <v>65800</v>
       </c>
       <c r="G60" s="3">
-        <v>19900</v>
+        <v>20800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>240200</v>
+        <v>251600</v>
       </c>
       <c r="E66" s="3">
-        <v>124200</v>
+        <v>130100</v>
       </c>
       <c r="F66" s="3">
-        <v>62900</v>
+        <v>65800</v>
       </c>
       <c r="G66" s="3">
-        <v>19900</v>
+        <v>20800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>21900</v>
+        <v>23000</v>
       </c>
       <c r="G70" s="3">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28400</v>
+        <v>29800</v>
       </c>
       <c r="E72" s="3">
-        <v>-13900</v>
+        <v>-14500</v>
       </c>
       <c r="F72" s="3">
-        <v>-23400</v>
+        <v>-24500</v>
       </c>
       <c r="G72" s="3">
-        <v>-36000</v>
+        <v>-37700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,13 +2754,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>198800</v>
+        <v>208200</v>
       </c>
       <c r="E76" s="3">
-        <v>155100</v>
+        <v>162400</v>
       </c>
       <c r="F76" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="G76" s="3">
         <v>-900</v>
@@ -2858,10 +2858,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42400</v>
+        <v>44400</v>
       </c>
       <c r="E81" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="F81" s="3">
         <v>1200</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35700</v>
+        <v>37300</v>
       </c>
       <c r="E89" s="3">
-        <v>32300</v>
+        <v>33800</v>
       </c>
       <c r="F89" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="G89" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,10 +3152,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9300</v>
+        <v>-9700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -3251,10 +3251,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39100</v>
+        <v>-40900</v>
       </c>
       <c r="E94" s="3">
-        <v>-22000</v>
+        <v>-23100</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="E100" s="3">
-        <v>87900</v>
+        <v>92000</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3467,10 +3467,10 @@
         <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F101" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E102" s="3">
-        <v>100200</v>
+        <v>104900</v>
       </c>
       <c r="F102" s="3">
-        <v>17900</v>
+        <v>18700</v>
       </c>
       <c r="G102" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>707000</v>
+        <v>890000</v>
       </c>
       <c r="E8" s="3">
-        <v>389600</v>
+        <v>710000</v>
       </c>
       <c r="F8" s="3">
-        <v>132800</v>
+        <v>391300</v>
       </c>
       <c r="G8" s="3">
-        <v>47500</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>133400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>47800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>542300</v>
+        <v>724600</v>
       </c>
       <c r="E9" s="3">
-        <v>280400</v>
+        <v>544700</v>
       </c>
       <c r="F9" s="3">
-        <v>91000</v>
+        <v>281600</v>
       </c>
       <c r="G9" s="3">
-        <v>35400</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>91400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>35500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,27 +783,30 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>164700</v>
+        <v>165500</v>
       </c>
       <c r="E10" s="3">
-        <v>109200</v>
+        <v>165400</v>
       </c>
       <c r="F10" s="3">
-        <v>41900</v>
+        <v>109700</v>
       </c>
       <c r="G10" s="3">
+        <v>42000</v>
+      </c>
+      <c r="H10" s="3">
         <v>12200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,26 +838,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>31200</v>
+        <v>40600</v>
       </c>
       <c r="E12" s="3">
-        <v>18900</v>
+        <v>31300</v>
       </c>
       <c r="F12" s="3">
-        <v>9200</v>
+        <v>19000</v>
       </c>
       <c r="G12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,12 +940,15 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,12 +976,15 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>659700</v>
+        <v>861900</v>
       </c>
       <c r="E17" s="3">
-        <v>377400</v>
+        <v>662500</v>
       </c>
       <c r="F17" s="3">
-        <v>116800</v>
+        <v>379000</v>
       </c>
       <c r="G17" s="3">
-        <v>45400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>117300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,27 +1028,30 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>47300</v>
+        <v>28100</v>
       </c>
       <c r="E18" s="3">
-        <v>12200</v>
+        <v>47500</v>
       </c>
       <c r="F18" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G18" s="3">
         <v>16100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,25 +1083,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1083,27 +1116,30 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>55200</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>13900</v>
+        <v>55400</v>
       </c>
       <c r="F21" s="3">
-        <v>16700</v>
+        <v>14000</v>
       </c>
       <c r="G21" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1146,30 +1185,33 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>51600</v>
+        <v>33300</v>
       </c>
       <c r="E23" s="3">
-        <v>13600</v>
+        <v>51800</v>
       </c>
       <c r="F23" s="3">
-        <v>16400</v>
+        <v>13700</v>
       </c>
       <c r="G23" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,27 +1224,30 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,27 +1296,30 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44700</v>
+        <v>26700</v>
       </c>
       <c r="E26" s="3">
-        <v>9900</v>
+        <v>44900</v>
       </c>
       <c r="F26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="3">
         <v>14200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,27 +1332,30 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>44400</v>
+        <v>26500</v>
       </c>
       <c r="E27" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F27" s="3">
         <v>7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1377,12 +1437,15 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,26 +1512,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1479,27 +1548,30 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44400</v>
+        <v>26500</v>
       </c>
       <c r="E33" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F33" s="3">
         <v>7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,27 +1620,30 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44400</v>
+        <v>26500</v>
       </c>
       <c r="E35" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F35" s="3">
         <v>7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>147900</v>
+        <v>77000</v>
       </c>
       <c r="E41" s="3">
-        <v>143000</v>
+        <v>148600</v>
       </c>
       <c r="F41" s="3">
-        <v>42600</v>
+        <v>143700</v>
       </c>
       <c r="G41" s="3">
-        <v>23900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>42800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>24000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,20 +1765,23 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>57200</v>
+        <v>107900</v>
       </c>
       <c r="E42" s="3">
-        <v>25700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>57500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>25800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1709,29 +1798,32 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>160600</v>
+        <v>171800</v>
       </c>
       <c r="E43" s="3">
-        <v>73800</v>
+        <v>161300</v>
       </c>
       <c r="F43" s="3">
-        <v>47400</v>
+        <v>74100</v>
       </c>
       <c r="G43" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>47600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>12300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,27 +1837,30 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63600</v>
+        <v>67100</v>
       </c>
       <c r="E44" s="3">
-        <v>35300</v>
+        <v>63900</v>
       </c>
       <c r="F44" s="3">
+        <v>35400</v>
+      </c>
+      <c r="G44" s="3">
         <v>7700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
-        <v>11600</v>
-      </c>
       <c r="F45" s="3">
-        <v>3500</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>442300</v>
+        <v>447900</v>
       </c>
       <c r="E46" s="3">
-        <v>289400</v>
+        <v>444200</v>
       </c>
       <c r="F46" s="3">
-        <v>101200</v>
+        <v>290700</v>
       </c>
       <c r="G46" s="3">
-        <v>42000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>101700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>42200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,32 +1945,35 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>7600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13200</v>
+        <v>23800</v>
       </c>
       <c r="E48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,20 +2017,23 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1940,12 +2050,15 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
-        <v>1300</v>
-      </c>
       <c r="F52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>459800</v>
+        <v>485800</v>
       </c>
       <c r="E54" s="3">
-        <v>292500</v>
+        <v>461800</v>
       </c>
       <c r="F54" s="3">
-        <v>102200</v>
+        <v>293800</v>
       </c>
       <c r="G54" s="3">
-        <v>42900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>102600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>43100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>158700</v>
+        <v>153000</v>
       </c>
       <c r="E57" s="3">
-        <v>83400</v>
+        <v>159400</v>
       </c>
       <c r="F57" s="3">
-        <v>44400</v>
+        <v>83800</v>
       </c>
       <c r="G57" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>44600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,27 +2301,30 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="E58" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,27 +2337,30 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71300</v>
+        <v>77700</v>
       </c>
       <c r="E59" s="3">
-        <v>45200</v>
+        <v>71600</v>
       </c>
       <c r="F59" s="3">
-        <v>15900</v>
+        <v>45400</v>
       </c>
       <c r="G59" s="3">
+        <v>16000</v>
+      </c>
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>248400</v>
+        <v>249700</v>
       </c>
       <c r="E60" s="3">
-        <v>129600</v>
+        <v>249500</v>
       </c>
       <c r="F60" s="3">
-        <v>65800</v>
+        <v>130100</v>
       </c>
       <c r="G60" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>66100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>20900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,9 +2445,12 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2313,16 +2458,16 @@
         <v>2300</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>251600</v>
+        <v>252500</v>
       </c>
       <c r="E66" s="3">
-        <v>130100</v>
+        <v>252600</v>
       </c>
       <c r="F66" s="3">
-        <v>65800</v>
+        <v>130700</v>
       </c>
       <c r="G66" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>66100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>20900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>23100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29800</v>
+        <v>55500</v>
       </c>
       <c r="E72" s="3">
-        <v>-14500</v>
+        <v>29900</v>
       </c>
       <c r="F72" s="3">
-        <v>-24500</v>
+        <v>-14600</v>
       </c>
       <c r="G72" s="3">
-        <v>-37700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-24600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-37900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,27 +2929,30 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>208200</v>
+        <v>233300</v>
       </c>
       <c r="E76" s="3">
-        <v>162400</v>
+        <v>209100</v>
       </c>
       <c r="F76" s="3">
-        <v>13300</v>
+        <v>163100</v>
       </c>
       <c r="G76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,27 +3042,30 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44400</v>
+        <v>26500</v>
       </c>
       <c r="E81" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F81" s="3">
         <v>7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,26 +3097,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,27 +3310,30 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>37300</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>33800</v>
+        <v>37500</v>
       </c>
       <c r="F89" s="3">
-        <v>18800</v>
+        <v>34000</v>
       </c>
       <c r="G89" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-9700</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-40900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-23100</v>
+        <v>-41100</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-23200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>-200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,17 +3525,18 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,27 +3666,30 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>7400</v>
       </c>
-      <c r="E100" s="3">
-        <v>92000</v>
-      </c>
       <c r="F100" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,27 +3702,30 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>5000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>104900</v>
+        <v>5100</v>
       </c>
       <c r="F102" s="3">
-        <v>18700</v>
+        <v>105400</v>
       </c>
       <c r="G102" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>4600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>890000</v>
+        <v>908900</v>
       </c>
       <c r="E8" s="3">
-        <v>710000</v>
+        <v>725100</v>
       </c>
       <c r="F8" s="3">
-        <v>391300</v>
+        <v>399600</v>
       </c>
       <c r="G8" s="3">
-        <v>133400</v>
+        <v>136200</v>
       </c>
       <c r="H8" s="3">
-        <v>47800</v>
+        <v>48800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>724600</v>
+        <v>739900</v>
       </c>
       <c r="E9" s="3">
-        <v>544700</v>
+        <v>556200</v>
       </c>
       <c r="F9" s="3">
-        <v>281600</v>
+        <v>287600</v>
       </c>
       <c r="G9" s="3">
-        <v>91400</v>
+        <v>93300</v>
       </c>
       <c r="H9" s="3">
-        <v>35500</v>
+        <v>36300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>165500</v>
+        <v>169000</v>
       </c>
       <c r="E10" s="3">
-        <v>165400</v>
+        <v>168900</v>
       </c>
       <c r="F10" s="3">
-        <v>109700</v>
+        <v>112000</v>
       </c>
       <c r="G10" s="3">
-        <v>42000</v>
+        <v>42900</v>
       </c>
       <c r="H10" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40600</v>
+        <v>41400</v>
       </c>
       <c r="E12" s="3">
-        <v>31300</v>
+        <v>32000</v>
       </c>
       <c r="F12" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="G12" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="H12" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>861900</v>
+        <v>880200</v>
       </c>
       <c r="E17" s="3">
-        <v>662500</v>
+        <v>676500</v>
       </c>
       <c r="F17" s="3">
-        <v>379000</v>
+        <v>387000</v>
       </c>
       <c r="G17" s="3">
-        <v>117300</v>
+        <v>119800</v>
       </c>
       <c r="H17" s="3">
-        <v>45600</v>
+        <v>46500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,16 +1038,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28100</v>
+        <v>28700</v>
       </c>
       <c r="E18" s="3">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="F18" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="G18" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="H18" s="3">
         <v>2200</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
         <v>1400</v>
@@ -1125,20 +1125,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>42400</v>
       </c>
       <c r="E21" s="3">
-        <v>55400</v>
+        <v>56600</v>
       </c>
       <c r="F21" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="G21" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="H21" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>33300</v>
+        <v>34000</v>
       </c>
       <c r="E23" s="3">
-        <v>51800</v>
+        <v>52900</v>
       </c>
       <c r="F23" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="G23" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="H23" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E24" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G24" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H24" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,16 +1306,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="E26" s="3">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="F26" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="G26" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="H26" s="3">
         <v>2500</v>
@@ -1342,16 +1342,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="E27" s="3">
-        <v>44600</v>
+        <v>45600</v>
       </c>
       <c r="F27" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G27" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
         <v>-1400</v>
@@ -1558,16 +1558,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="E33" s="3">
-        <v>44600</v>
+        <v>45600</v>
       </c>
       <c r="F33" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G33" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
@@ -1630,16 +1630,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="E35" s="3">
-        <v>44600</v>
+        <v>45600</v>
       </c>
       <c r="F35" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G35" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77000</v>
+        <v>78600</v>
       </c>
       <c r="E41" s="3">
-        <v>148600</v>
+        <v>151700</v>
       </c>
       <c r="F41" s="3">
-        <v>143700</v>
+        <v>146700</v>
       </c>
       <c r="G41" s="3">
-        <v>42800</v>
+        <v>43700</v>
       </c>
       <c r="H41" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>107900</v>
+        <v>110200</v>
       </c>
       <c r="E42" s="3">
-        <v>57500</v>
+        <v>58700</v>
       </c>
       <c r="F42" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>171800</v>
+        <v>178200</v>
       </c>
       <c r="E43" s="3">
-        <v>161300</v>
+        <v>164700</v>
       </c>
       <c r="F43" s="3">
-        <v>74100</v>
+        <v>75700</v>
       </c>
       <c r="G43" s="3">
-        <v>47600</v>
+        <v>48600</v>
       </c>
       <c r="H43" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67100</v>
+        <v>68500</v>
       </c>
       <c r="E44" s="3">
-        <v>63900</v>
+        <v>65200</v>
       </c>
       <c r="F44" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="G44" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H44" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24100</v>
+        <v>21900</v>
       </c>
       <c r="E45" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="G45" s="3">
         <v>3600</v>
       </c>
       <c r="H45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>447900</v>
+        <v>457400</v>
       </c>
       <c r="E46" s="3">
-        <v>444200</v>
+        <v>453600</v>
       </c>
       <c r="F46" s="3">
-        <v>290700</v>
+        <v>296800</v>
       </c>
       <c r="G46" s="3">
-        <v>101700</v>
+        <v>103800</v>
       </c>
       <c r="H46" s="3">
-        <v>42200</v>
+        <v>43100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="E48" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="F48" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
@@ -2147,7 +2147,7 @@
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>485800</v>
+        <v>496000</v>
       </c>
       <c r="E54" s="3">
-        <v>461800</v>
+        <v>471500</v>
       </c>
       <c r="F54" s="3">
-        <v>293800</v>
+        <v>300000</v>
       </c>
       <c r="G54" s="3">
-        <v>102600</v>
+        <v>104800</v>
       </c>
       <c r="H54" s="3">
-        <v>43100</v>
+        <v>44000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153000</v>
+        <v>156200</v>
       </c>
       <c r="E57" s="3">
-        <v>159400</v>
+        <v>162700</v>
       </c>
       <c r="F57" s="3">
-        <v>83800</v>
+        <v>85600</v>
       </c>
       <c r="G57" s="3">
-        <v>44600</v>
+        <v>45500</v>
       </c>
       <c r="H57" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="E58" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77700</v>
+        <v>79300</v>
       </c>
       <c r="E59" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="F59" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="G59" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="H59" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>249700</v>
+        <v>254900</v>
       </c>
       <c r="E60" s="3">
-        <v>249500</v>
+        <v>254700</v>
       </c>
       <c r="F60" s="3">
-        <v>130100</v>
+        <v>132900</v>
       </c>
       <c r="G60" s="3">
-        <v>66100</v>
+        <v>67500</v>
       </c>
       <c r="H60" s="3">
-        <v>20900</v>
+        <v>21400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>252500</v>
+        <v>257800</v>
       </c>
       <c r="E66" s="3">
-        <v>252600</v>
+        <v>258000</v>
       </c>
       <c r="F66" s="3">
-        <v>130700</v>
+        <v>133400</v>
       </c>
       <c r="G66" s="3">
-        <v>66100</v>
+        <v>67500</v>
       </c>
       <c r="H66" s="3">
-        <v>20900</v>
+        <v>21400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="H70" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55500</v>
+        <v>56600</v>
       </c>
       <c r="E72" s="3">
-        <v>29900</v>
+        <v>30500</v>
       </c>
       <c r="F72" s="3">
-        <v>-14600</v>
+        <v>-14900</v>
       </c>
       <c r="G72" s="3">
-        <v>-24600</v>
+        <v>-25100</v>
       </c>
       <c r="H72" s="3">
-        <v>-37900</v>
+        <v>-38700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>233300</v>
+        <v>238200</v>
       </c>
       <c r="E76" s="3">
-        <v>209100</v>
+        <v>213500</v>
       </c>
       <c r="F76" s="3">
-        <v>163100</v>
+        <v>166600</v>
       </c>
       <c r="G76" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="H76" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,16 +3052,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="E81" s="3">
-        <v>44600</v>
+        <v>45600</v>
       </c>
       <c r="F81" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G81" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
@@ -3103,14 +3103,14 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>8500</v>
       </c>
       <c r="E83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3319,17 +3319,17 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>28900</v>
       </c>
       <c r="E89" s="3">
-        <v>37500</v>
+        <v>38300</v>
       </c>
       <c r="F89" s="3">
-        <v>34000</v>
+        <v>34700</v>
       </c>
       <c r="G89" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="H89" s="3">
         <v>2400</v>
@@ -3371,11 +3371,11 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-7500</v>
       </c>
       <c r="E91" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="F91" s="3">
         <v>-2100</v>
@@ -3384,7 +3384,7 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3479,20 +3479,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-67600</v>
       </c>
       <c r="E94" s="3">
-        <v>-41100</v>
+        <v>-42000</v>
       </c>
       <c r="F94" s="3">
-        <v>-23200</v>
+        <v>-23700</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3675,14 +3675,14 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-22800</v>
       </c>
       <c r="E100" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F100" s="3">
-        <v>92400</v>
+        <v>94400</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -3711,20 +3711,20 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-5300</v>
       </c>
       <c r="E101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
       </c>
       <c r="H101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3747,17 +3747,17 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-66800</v>
       </c>
       <c r="E102" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F102" s="3">
-        <v>105400</v>
+        <v>107600</v>
       </c>
       <c r="G102" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="H102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>908900</v>
+        <v>897000</v>
       </c>
       <c r="E8" s="3">
-        <v>725100</v>
+        <v>715600</v>
       </c>
       <c r="F8" s="3">
-        <v>399600</v>
+        <v>394400</v>
       </c>
       <c r="G8" s="3">
-        <v>136200</v>
+        <v>134500</v>
       </c>
       <c r="H8" s="3">
-        <v>48800</v>
+        <v>48100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>739900</v>
+        <v>730300</v>
       </c>
       <c r="E9" s="3">
-        <v>556200</v>
+        <v>549000</v>
       </c>
       <c r="F9" s="3">
-        <v>287600</v>
+        <v>283900</v>
       </c>
       <c r="G9" s="3">
-        <v>93300</v>
+        <v>92100</v>
       </c>
       <c r="H9" s="3">
-        <v>36300</v>
+        <v>35800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>169000</v>
+        <v>166800</v>
       </c>
       <c r="E10" s="3">
-        <v>168900</v>
+        <v>166700</v>
       </c>
       <c r="F10" s="3">
-        <v>112000</v>
+        <v>110500</v>
       </c>
       <c r="G10" s="3">
-        <v>42900</v>
+        <v>42400</v>
       </c>
       <c r="H10" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41400</v>
+        <v>40900</v>
       </c>
       <c r="E12" s="3">
-        <v>32000</v>
+        <v>31600</v>
       </c>
       <c r="F12" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="G12" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="H12" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>880200</v>
+        <v>868700</v>
       </c>
       <c r="E17" s="3">
-        <v>676500</v>
+        <v>667700</v>
       </c>
       <c r="F17" s="3">
-        <v>387000</v>
+        <v>382000</v>
       </c>
       <c r="G17" s="3">
-        <v>119800</v>
+        <v>118200</v>
       </c>
       <c r="H17" s="3">
-        <v>46500</v>
+        <v>45900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,16 +1038,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28700</v>
+        <v>28300</v>
       </c>
       <c r="E18" s="3">
-        <v>48500</v>
+        <v>47900</v>
       </c>
       <c r="F18" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="G18" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="H18" s="3">
         <v>2200</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F20" s="3">
         <v>1400</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42400</v>
+        <v>41900</v>
       </c>
       <c r="E21" s="3">
-        <v>56600</v>
+        <v>55800</v>
       </c>
       <c r="F21" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="G21" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="H21" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34000</v>
+        <v>33500</v>
       </c>
       <c r="E23" s="3">
-        <v>52900</v>
+        <v>52200</v>
       </c>
       <c r="F23" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="G23" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="H23" s="3">
         <v>2200</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F24" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G24" s="3">
         <v>2300</v>
       </c>
       <c r="H24" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,16 +1306,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="E26" s="3">
-        <v>45800</v>
+        <v>45200</v>
       </c>
       <c r="F26" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G26" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="H26" s="3">
         <v>2500</v>
@@ -1342,16 +1342,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="E27" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="F27" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G27" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="F32" s="3">
         <v>-1400</v>
@@ -1558,16 +1558,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="E33" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="F33" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G33" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
@@ -1630,16 +1630,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="E35" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="F35" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G35" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78600</v>
+        <v>77600</v>
       </c>
       <c r="E41" s="3">
-        <v>151700</v>
+        <v>149700</v>
       </c>
       <c r="F41" s="3">
-        <v>146700</v>
+        <v>144800</v>
       </c>
       <c r="G41" s="3">
-        <v>43700</v>
+        <v>43100</v>
       </c>
       <c r="H41" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110200</v>
+        <v>108700</v>
       </c>
       <c r="E42" s="3">
-        <v>58700</v>
+        <v>57900</v>
       </c>
       <c r="F42" s="3">
-        <v>26400</v>
+        <v>26000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>178200</v>
+        <v>175900</v>
       </c>
       <c r="E43" s="3">
-        <v>164700</v>
+        <v>162600</v>
       </c>
       <c r="F43" s="3">
-        <v>75700</v>
+        <v>74700</v>
       </c>
       <c r="G43" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="H43" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68500</v>
+        <v>67700</v>
       </c>
       <c r="E44" s="3">
-        <v>65200</v>
+        <v>64400</v>
       </c>
       <c r="F44" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="G44" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H44" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21900</v>
+        <v>21600</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="F45" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="G45" s="3">
         <v>3600</v>
       </c>
       <c r="H45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>457400</v>
+        <v>451500</v>
       </c>
       <c r="E46" s="3">
-        <v>453600</v>
+        <v>447700</v>
       </c>
       <c r="F46" s="3">
-        <v>296800</v>
+        <v>293000</v>
       </c>
       <c r="G46" s="3">
-        <v>103800</v>
+        <v>102500</v>
       </c>
       <c r="H46" s="3">
-        <v>43100</v>
+        <v>42500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="E48" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="F48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
@@ -2147,7 +2147,7 @@
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>496000</v>
+        <v>489600</v>
       </c>
       <c r="E54" s="3">
-        <v>471500</v>
+        <v>465400</v>
       </c>
       <c r="F54" s="3">
-        <v>300000</v>
+        <v>296100</v>
       </c>
       <c r="G54" s="3">
-        <v>104800</v>
+        <v>103400</v>
       </c>
       <c r="H54" s="3">
-        <v>44000</v>
+        <v>43400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156200</v>
+        <v>154200</v>
       </c>
       <c r="E57" s="3">
-        <v>162700</v>
+        <v>160600</v>
       </c>
       <c r="F57" s="3">
-        <v>85600</v>
+        <v>84500</v>
       </c>
       <c r="G57" s="3">
-        <v>45500</v>
+        <v>44900</v>
       </c>
       <c r="H57" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,16 +2311,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="E58" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
         <v>5000</v>
@@ -2347,16 +2347,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79300</v>
+        <v>78300</v>
       </c>
       <c r="E59" s="3">
-        <v>73100</v>
+        <v>72200</v>
       </c>
       <c r="F59" s="3">
-        <v>46400</v>
+        <v>45800</v>
       </c>
       <c r="G59" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="H59" s="3">
         <v>4900</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>254900</v>
+        <v>251600</v>
       </c>
       <c r="E60" s="3">
-        <v>254700</v>
+        <v>251400</v>
       </c>
       <c r="F60" s="3">
-        <v>132900</v>
+        <v>131100</v>
       </c>
       <c r="G60" s="3">
-        <v>67500</v>
+        <v>66600</v>
       </c>
       <c r="H60" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>257800</v>
+        <v>254400</v>
       </c>
       <c r="E66" s="3">
-        <v>258000</v>
+        <v>254600</v>
       </c>
       <c r="F66" s="3">
-        <v>133400</v>
+        <v>131700</v>
       </c>
       <c r="G66" s="3">
-        <v>67500</v>
+        <v>66600</v>
       </c>
       <c r="H66" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="H70" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56600</v>
+        <v>55900</v>
       </c>
       <c r="E72" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="F72" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="G72" s="3">
-        <v>-25100</v>
+        <v>-24800</v>
       </c>
       <c r="H72" s="3">
-        <v>-38700</v>
+        <v>-38200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,16 +2939,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>238200</v>
+        <v>235100</v>
       </c>
       <c r="E76" s="3">
-        <v>213500</v>
+        <v>210800</v>
       </c>
       <c r="F76" s="3">
-        <v>166600</v>
+        <v>164400</v>
       </c>
       <c r="G76" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="H76" s="3">
         <v>-1000</v>
@@ -3052,16 +3052,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="E81" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="F81" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G81" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E83" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3320,16 +3320,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28900</v>
+        <v>28500</v>
       </c>
       <c r="E89" s="3">
-        <v>38300</v>
+        <v>37800</v>
       </c>
       <c r="F89" s="3">
-        <v>34700</v>
+        <v>34200</v>
       </c>
       <c r="G89" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="H89" s="3">
         <v>2400</v>
@@ -3372,10 +3372,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="E91" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="F91" s="3">
         <v>-2100</v>
@@ -3384,7 +3384,7 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67600</v>
+        <v>-66700</v>
       </c>
       <c r="E94" s="3">
-        <v>-42000</v>
+        <v>-41400</v>
       </c>
       <c r="F94" s="3">
-        <v>-23700</v>
+        <v>-23400</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22800</v>
+        <v>-22500</v>
       </c>
       <c r="E100" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="F100" s="3">
-        <v>94400</v>
+        <v>93200</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
       </c>
       <c r="H101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-66800</v>
+        <v>-65900</v>
       </c>
       <c r="E102" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F102" s="3">
-        <v>107600</v>
+        <v>106200</v>
       </c>
       <c r="G102" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="H102" s="3">
         <v>4600</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>897000</v>
+        <v>912100</v>
       </c>
       <c r="E8" s="3">
-        <v>715600</v>
+        <v>727600</v>
       </c>
       <c r="F8" s="3">
-        <v>394400</v>
+        <v>401000</v>
       </c>
       <c r="G8" s="3">
-        <v>134500</v>
+        <v>136700</v>
       </c>
       <c r="H8" s="3">
-        <v>48100</v>
+        <v>48900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>730300</v>
+        <v>742500</v>
       </c>
       <c r="E9" s="3">
-        <v>549000</v>
+        <v>558200</v>
       </c>
       <c r="F9" s="3">
-        <v>283900</v>
+        <v>288600</v>
       </c>
       <c r="G9" s="3">
-        <v>92100</v>
+        <v>93600</v>
       </c>
       <c r="H9" s="3">
-        <v>35800</v>
+        <v>36400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>166800</v>
+        <v>169500</v>
       </c>
       <c r="E10" s="3">
-        <v>166700</v>
+        <v>169500</v>
       </c>
       <c r="F10" s="3">
-        <v>110500</v>
+        <v>112400</v>
       </c>
       <c r="G10" s="3">
-        <v>42400</v>
+        <v>43100</v>
       </c>
       <c r="H10" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="E12" s="3">
-        <v>31600</v>
+        <v>32100</v>
       </c>
       <c r="F12" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="G12" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="H12" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>868700</v>
+        <v>883300</v>
       </c>
       <c r="E17" s="3">
-        <v>667700</v>
+        <v>678900</v>
       </c>
       <c r="F17" s="3">
-        <v>382000</v>
+        <v>388400</v>
       </c>
       <c r="G17" s="3">
-        <v>118200</v>
+        <v>120200</v>
       </c>
       <c r="H17" s="3">
-        <v>45900</v>
+        <v>46700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,16 +1038,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28300</v>
+        <v>28800</v>
       </c>
       <c r="E18" s="3">
-        <v>47900</v>
+        <v>48700</v>
       </c>
       <c r="F18" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="G18" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="H18" s="3">
         <v>2200</v>
@@ -1090,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
         <v>1400</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>41900</v>
+        <v>42600</v>
       </c>
       <c r="E21" s="3">
-        <v>55800</v>
+        <v>56800</v>
       </c>
       <c r="F21" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="G21" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="H21" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>33500</v>
+        <v>34100</v>
       </c>
       <c r="E23" s="3">
-        <v>52200</v>
+        <v>53100</v>
       </c>
       <c r="F23" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="G23" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="H23" s="3">
         <v>2200</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E24" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G24" s="3">
         <v>2300</v>
       </c>
       <c r="H24" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,16 +1306,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26900</v>
+        <v>27300</v>
       </c>
       <c r="E26" s="3">
-        <v>45200</v>
+        <v>46000</v>
       </c>
       <c r="F26" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="G26" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="H26" s="3">
         <v>2500</v>
@@ -1342,16 +1342,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26700</v>
+        <v>27100</v>
       </c>
       <c r="E27" s="3">
-        <v>45000</v>
+        <v>45700</v>
       </c>
       <c r="F27" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G27" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
@@ -1522,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
         <v>-1400</v>
@@ -1558,16 +1558,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26700</v>
+        <v>27100</v>
       </c>
       <c r="E33" s="3">
-        <v>45000</v>
+        <v>45700</v>
       </c>
       <c r="F33" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G33" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
@@ -1630,16 +1630,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26700</v>
+        <v>27100</v>
       </c>
       <c r="E35" s="3">
-        <v>45000</v>
+        <v>45700</v>
       </c>
       <c r="F35" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G35" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="E41" s="3">
-        <v>149700</v>
+        <v>152200</v>
       </c>
       <c r="F41" s="3">
-        <v>144800</v>
+        <v>147200</v>
       </c>
       <c r="G41" s="3">
-        <v>43100</v>
+        <v>43800</v>
       </c>
       <c r="H41" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>108700</v>
+        <v>110500</v>
       </c>
       <c r="E42" s="3">
-        <v>57900</v>
+        <v>58900</v>
       </c>
       <c r="F42" s="3">
-        <v>26000</v>
+        <v>26500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>175900</v>
+        <v>178800</v>
       </c>
       <c r="E43" s="3">
-        <v>162600</v>
+        <v>165300</v>
       </c>
       <c r="F43" s="3">
-        <v>74700</v>
+        <v>75900</v>
       </c>
       <c r="G43" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="H43" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67700</v>
+        <v>68800</v>
       </c>
       <c r="E44" s="3">
-        <v>64400</v>
+        <v>65400</v>
       </c>
       <c r="F44" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="G44" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H44" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21600</v>
+        <v>21900</v>
       </c>
       <c r="E45" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="3">
         <v>3600</v>
       </c>
       <c r="H45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>451500</v>
+        <v>459000</v>
       </c>
       <c r="E46" s="3">
-        <v>447700</v>
+        <v>455200</v>
       </c>
       <c r="F46" s="3">
-        <v>293000</v>
+        <v>297900</v>
       </c>
       <c r="G46" s="3">
-        <v>102500</v>
+        <v>104200</v>
       </c>
       <c r="H46" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="E48" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="F48" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
@@ -2147,7 +2147,7 @@
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>489600</v>
+        <v>497800</v>
       </c>
       <c r="E54" s="3">
-        <v>465400</v>
+        <v>473200</v>
       </c>
       <c r="F54" s="3">
-        <v>296100</v>
+        <v>301100</v>
       </c>
       <c r="G54" s="3">
-        <v>103400</v>
+        <v>105100</v>
       </c>
       <c r="H54" s="3">
-        <v>43400</v>
+        <v>44100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>154200</v>
+        <v>156800</v>
       </c>
       <c r="E57" s="3">
-        <v>160600</v>
+        <v>163300</v>
       </c>
       <c r="F57" s="3">
-        <v>84500</v>
+        <v>85900</v>
       </c>
       <c r="G57" s="3">
-        <v>44900</v>
+        <v>45700</v>
       </c>
       <c r="H57" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="E58" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,16 +2347,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78300</v>
+        <v>79600</v>
       </c>
       <c r="E59" s="3">
-        <v>72200</v>
+        <v>73400</v>
       </c>
       <c r="F59" s="3">
-        <v>45800</v>
+        <v>46600</v>
       </c>
       <c r="G59" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="H59" s="3">
         <v>4900</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>251600</v>
+        <v>255800</v>
       </c>
       <c r="E60" s="3">
-        <v>251400</v>
+        <v>255600</v>
       </c>
       <c r="F60" s="3">
-        <v>131100</v>
+        <v>133300</v>
       </c>
       <c r="G60" s="3">
-        <v>66600</v>
+        <v>67700</v>
       </c>
       <c r="H60" s="3">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>254400</v>
+        <v>258700</v>
       </c>
       <c r="E66" s="3">
-        <v>254600</v>
+        <v>258900</v>
       </c>
       <c r="F66" s="3">
-        <v>131700</v>
+        <v>133900</v>
       </c>
       <c r="G66" s="3">
-        <v>66600</v>
+        <v>67800</v>
       </c>
       <c r="H66" s="3">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>23300</v>
+        <v>23600</v>
       </c>
       <c r="H70" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55900</v>
+        <v>56800</v>
       </c>
       <c r="E72" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="F72" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="G72" s="3">
-        <v>-24800</v>
+        <v>-25200</v>
       </c>
       <c r="H72" s="3">
-        <v>-38200</v>
+        <v>-38800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,16 +2939,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>235100</v>
+        <v>239100</v>
       </c>
       <c r="E76" s="3">
-        <v>210800</v>
+        <v>214300</v>
       </c>
       <c r="F76" s="3">
-        <v>164400</v>
+        <v>167200</v>
       </c>
       <c r="G76" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="H76" s="3">
         <v>-1000</v>
@@ -3052,16 +3052,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26700</v>
+        <v>27100</v>
       </c>
       <c r="E81" s="3">
-        <v>45000</v>
+        <v>45700</v>
       </c>
       <c r="F81" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G81" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="E83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3320,16 +3320,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="E89" s="3">
-        <v>37800</v>
+        <v>38400</v>
       </c>
       <c r="F89" s="3">
-        <v>34200</v>
+        <v>34800</v>
       </c>
       <c r="G89" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="H89" s="3">
         <v>2400</v>
@@ -3372,10 +3372,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="E91" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="F91" s="3">
         <v>-2100</v>
@@ -3384,7 +3384,7 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66700</v>
+        <v>-67800</v>
       </c>
       <c r="E94" s="3">
-        <v>-41400</v>
+        <v>-42100</v>
       </c>
       <c r="F94" s="3">
-        <v>-23400</v>
+        <v>-23800</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22500</v>
+        <v>-22900</v>
       </c>
       <c r="E100" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F100" s="3">
-        <v>93200</v>
+        <v>94700</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
       </c>
       <c r="H101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-65900</v>
+        <v>-67100</v>
       </c>
       <c r="E102" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F102" s="3">
-        <v>106200</v>
+        <v>108000</v>
       </c>
       <c r="G102" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="H102" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>912100</v>
+        <v>919100</v>
       </c>
       <c r="E8" s="3">
-        <v>727600</v>
+        <v>733200</v>
       </c>
       <c r="F8" s="3">
-        <v>401000</v>
+        <v>404100</v>
       </c>
       <c r="G8" s="3">
-        <v>136700</v>
+        <v>137800</v>
       </c>
       <c r="H8" s="3">
-        <v>48900</v>
+        <v>49300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>742500</v>
+        <v>748200</v>
       </c>
       <c r="E9" s="3">
-        <v>558200</v>
+        <v>562400</v>
       </c>
       <c r="F9" s="3">
-        <v>288600</v>
+        <v>290800</v>
       </c>
       <c r="G9" s="3">
-        <v>93600</v>
+        <v>94300</v>
       </c>
       <c r="H9" s="3">
-        <v>36400</v>
+        <v>36700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>169500</v>
+        <v>170800</v>
       </c>
       <c r="E10" s="3">
-        <v>169500</v>
+        <v>170800</v>
       </c>
       <c r="F10" s="3">
-        <v>112400</v>
+        <v>113200</v>
       </c>
       <c r="G10" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="H10" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,16 +845,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41600</v>
+        <v>41900</v>
       </c>
       <c r="E12" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="F12" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="G12" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="H12" s="3">
         <v>4700</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>883300</v>
+        <v>890000</v>
       </c>
       <c r="E17" s="3">
-        <v>678900</v>
+        <v>684100</v>
       </c>
       <c r="F17" s="3">
-        <v>388400</v>
+        <v>391400</v>
       </c>
       <c r="G17" s="3">
-        <v>120200</v>
+        <v>121100</v>
       </c>
       <c r="H17" s="3">
-        <v>46700</v>
+        <v>47100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="E18" s="3">
-        <v>48700</v>
+        <v>49100</v>
       </c>
       <c r="F18" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="G18" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="H18" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1126,16 +1126,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42600</v>
+        <v>42900</v>
       </c>
       <c r="E21" s="3">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="F21" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="G21" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="H21" s="3">
         <v>2400</v>
@@ -1198,16 +1198,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34100</v>
+        <v>34400</v>
       </c>
       <c r="E23" s="3">
-        <v>53100</v>
+        <v>53500</v>
       </c>
       <c r="F23" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="G23" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="H23" s="3">
         <v>2200</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="E26" s="3">
-        <v>46000</v>
+        <v>46400</v>
       </c>
       <c r="F26" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G26" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="H26" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="E27" s="3">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="F27" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G27" s="3">
         <v>1300</v>
@@ -1558,13 +1558,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="E33" s="3">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="F33" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G33" s="3">
         <v>1300</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="E35" s="3">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="F35" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="3">
         <v>1300</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78900</v>
+        <v>79500</v>
       </c>
       <c r="E41" s="3">
-        <v>152200</v>
+        <v>153400</v>
       </c>
       <c r="F41" s="3">
-        <v>147200</v>
+        <v>148300</v>
       </c>
       <c r="G41" s="3">
-        <v>43800</v>
+        <v>44200</v>
       </c>
       <c r="H41" s="3">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110500</v>
+        <v>111400</v>
       </c>
       <c r="E42" s="3">
-        <v>58900</v>
+        <v>59300</v>
       </c>
       <c r="F42" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>178800</v>
+        <v>180200</v>
       </c>
       <c r="E43" s="3">
-        <v>165300</v>
+        <v>166600</v>
       </c>
       <c r="F43" s="3">
-        <v>75900</v>
+        <v>76500</v>
       </c>
       <c r="G43" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="H43" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68800</v>
+        <v>69300</v>
       </c>
       <c r="E44" s="3">
-        <v>65400</v>
+        <v>65900</v>
       </c>
       <c r="F44" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="G44" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H44" s="3">
         <v>3800</v>
@@ -1883,16 +1883,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="F45" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H45" s="3">
         <v>2300</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>459000</v>
+        <v>462500</v>
       </c>
       <c r="E46" s="3">
-        <v>455200</v>
+        <v>458700</v>
       </c>
       <c r="F46" s="3">
-        <v>297900</v>
+        <v>300200</v>
       </c>
       <c r="G46" s="3">
-        <v>104200</v>
+        <v>105000</v>
       </c>
       <c r="H46" s="3">
-        <v>43200</v>
+        <v>43600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="E48" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="F48" s="3">
         <v>1800</v>
@@ -2135,7 +2135,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
         <v>3700</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>497800</v>
+        <v>501600</v>
       </c>
       <c r="E54" s="3">
-        <v>473200</v>
+        <v>476800</v>
       </c>
       <c r="F54" s="3">
-        <v>301100</v>
+        <v>303400</v>
       </c>
       <c r="G54" s="3">
-        <v>105100</v>
+        <v>105900</v>
       </c>
       <c r="H54" s="3">
-        <v>44100</v>
+        <v>44500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156800</v>
+        <v>158000</v>
       </c>
       <c r="E57" s="3">
-        <v>163300</v>
+        <v>164600</v>
       </c>
       <c r="F57" s="3">
-        <v>85900</v>
+        <v>86500</v>
       </c>
       <c r="G57" s="3">
-        <v>45700</v>
+        <v>46000</v>
       </c>
       <c r="H57" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,16 +2311,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="E58" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H58" s="3">
         <v>5100</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="E59" s="3">
-        <v>73400</v>
+        <v>73900</v>
       </c>
       <c r="F59" s="3">
-        <v>46600</v>
+        <v>46900</v>
       </c>
       <c r="G59" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="H59" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>255800</v>
+        <v>257800</v>
       </c>
       <c r="E60" s="3">
-        <v>255600</v>
+        <v>257600</v>
       </c>
       <c r="F60" s="3">
-        <v>133300</v>
+        <v>134400</v>
       </c>
       <c r="G60" s="3">
-        <v>67700</v>
+        <v>68200</v>
       </c>
       <c r="H60" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>258700</v>
+        <v>260700</v>
       </c>
       <c r="E66" s="3">
-        <v>258900</v>
+        <v>260900</v>
       </c>
       <c r="F66" s="3">
-        <v>133900</v>
+        <v>134900</v>
       </c>
       <c r="G66" s="3">
-        <v>67800</v>
+        <v>68300</v>
       </c>
       <c r="H66" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="H70" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="E72" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="F72" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="G72" s="3">
-        <v>-25200</v>
+        <v>-25400</v>
       </c>
       <c r="H72" s="3">
-        <v>-38800</v>
+        <v>-39100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,16 +2939,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>239100</v>
+        <v>240900</v>
       </c>
       <c r="E76" s="3">
-        <v>214300</v>
+        <v>215900</v>
       </c>
       <c r="F76" s="3">
-        <v>167200</v>
+        <v>168500</v>
       </c>
       <c r="G76" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="H76" s="3">
         <v>-1000</v>
@@ -3052,13 +3052,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="E81" s="3">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="F81" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G81" s="3">
         <v>1300</v>
@@ -3104,7 +3104,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="E83" s="3">
         <v>3700</v>
@@ -3320,16 +3320,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="E89" s="3">
-        <v>38400</v>
+        <v>38700</v>
       </c>
       <c r="F89" s="3">
-        <v>34800</v>
+        <v>35100</v>
       </c>
       <c r="G89" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="H89" s="3">
         <v>2400</v>
@@ -3372,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="E91" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -3480,13 +3480,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67800</v>
+        <v>-68300</v>
       </c>
       <c r="E94" s="3">
-        <v>-42100</v>
+        <v>-42400</v>
       </c>
       <c r="F94" s="3">
-        <v>-23800</v>
+        <v>-24000</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22900</v>
+        <v>-23100</v>
       </c>
       <c r="E100" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F100" s="3">
-        <v>94700</v>
+        <v>95400</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E101" s="3">
         <v>1300</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-67100</v>
+        <v>-67600</v>
       </c>
       <c r="E102" s="3">
         <v>5200</v>
       </c>
       <c r="F102" s="3">
-        <v>108000</v>
+        <v>108800</v>
       </c>
       <c r="G102" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="H102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +714,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>919100</v>
+        <v>781600</v>
       </c>
       <c r="E8" s="3">
-        <v>733200</v>
+        <v>858500</v>
       </c>
       <c r="F8" s="3">
-        <v>404100</v>
+        <v>684900</v>
       </c>
       <c r="G8" s="3">
-        <v>137800</v>
+        <v>377400</v>
       </c>
       <c r="H8" s="3">
-        <v>49300</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>128700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>46100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -750,29 +753,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>748200</v>
+        <v>605000</v>
       </c>
       <c r="E9" s="3">
-        <v>562400</v>
+        <v>698900</v>
       </c>
       <c r="F9" s="3">
-        <v>290800</v>
+        <v>525400</v>
       </c>
       <c r="G9" s="3">
-        <v>94300</v>
+        <v>271600</v>
       </c>
       <c r="H9" s="3">
-        <v>36700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>88100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>34300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -786,29 +792,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>170800</v>
+        <v>176500</v>
       </c>
       <c r="E10" s="3">
-        <v>170800</v>
+        <v>159600</v>
       </c>
       <c r="F10" s="3">
-        <v>113200</v>
+        <v>159500</v>
       </c>
       <c r="G10" s="3">
-        <v>43400</v>
+        <v>105800</v>
       </c>
       <c r="H10" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>40600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,28 +851,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41900</v>
+        <v>45900</v>
       </c>
       <c r="E12" s="3">
-        <v>32300</v>
+        <v>39200</v>
       </c>
       <c r="F12" s="3">
-        <v>19600</v>
+        <v>30200</v>
       </c>
       <c r="G12" s="3">
-        <v>9600</v>
+        <v>18300</v>
       </c>
       <c r="H12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>9000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,12 +962,15 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,12 +1001,15 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,28 +1021,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>890000</v>
+        <v>772000</v>
       </c>
       <c r="E17" s="3">
-        <v>684100</v>
+        <v>831400</v>
       </c>
       <c r="F17" s="3">
-        <v>391400</v>
+        <v>639000</v>
       </c>
       <c r="G17" s="3">
-        <v>121100</v>
+        <v>365600</v>
       </c>
       <c r="H17" s="3">
-        <v>47100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>113100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1031,29 +1057,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29000</v>
+        <v>9500</v>
       </c>
       <c r="E18" s="3">
-        <v>49100</v>
+        <v>27100</v>
       </c>
       <c r="F18" s="3">
-        <v>12700</v>
+        <v>45800</v>
       </c>
       <c r="G18" s="3">
-        <v>16700</v>
+        <v>11800</v>
       </c>
       <c r="H18" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>15600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,28 +1116,29 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>4400</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="3">
-        <v>1400</v>
+        <v>4100</v>
       </c>
       <c r="G20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1119,29 +1152,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42900</v>
+        <v>24700</v>
       </c>
       <c r="E21" s="3">
-        <v>57200</v>
+        <v>40200</v>
       </c>
       <c r="F21" s="3">
-        <v>14500</v>
+        <v>53500</v>
       </c>
       <c r="G21" s="3">
-        <v>17300</v>
+        <v>13500</v>
       </c>
       <c r="H21" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>16200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1188,32 +1227,35 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34400</v>
+        <v>13900</v>
       </c>
       <c r="E23" s="3">
-        <v>53500</v>
+        <v>32100</v>
       </c>
       <c r="F23" s="3">
-        <v>14100</v>
+        <v>50000</v>
       </c>
       <c r="G23" s="3">
-        <v>17000</v>
+        <v>13200</v>
       </c>
       <c r="H23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1269,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6800</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>6400</v>
       </c>
       <c r="F24" s="3">
-        <v>3800</v>
+        <v>6700</v>
       </c>
       <c r="G24" s="3">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="H24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>2200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,29 +1347,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27500</v>
+        <v>13100</v>
       </c>
       <c r="E26" s="3">
-        <v>46400</v>
+        <v>25700</v>
       </c>
       <c r="F26" s="3">
-        <v>10300</v>
+        <v>43300</v>
       </c>
       <c r="G26" s="3">
-        <v>14700</v>
+        <v>9600</v>
       </c>
       <c r="H26" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>13700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2400</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1335,30 +1386,33 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27300</v>
+        <v>13100</v>
       </c>
       <c r="E27" s="3">
-        <v>46100</v>
+        <v>25500</v>
       </c>
       <c r="F27" s="3">
-        <v>8000</v>
+        <v>43100</v>
       </c>
       <c r="G27" s="3">
-        <v>1300</v>
+        <v>7400</v>
       </c>
       <c r="H27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1440,12 +1500,15 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,29 +1581,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-4400</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1400</v>
+        <v>-4100</v>
       </c>
       <c r="G32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1551,30 +1620,33 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27300</v>
+        <v>13100</v>
       </c>
       <c r="E33" s="3">
-        <v>46100</v>
+        <v>25500</v>
       </c>
       <c r="F33" s="3">
-        <v>8000</v>
+        <v>43100</v>
       </c>
       <c r="G33" s="3">
-        <v>1300</v>
+        <v>7400</v>
       </c>
       <c r="H33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,30 +1698,33 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27300</v>
+        <v>13100</v>
       </c>
       <c r="E35" s="3">
-        <v>46100</v>
+        <v>25500</v>
       </c>
       <c r="F35" s="3">
-        <v>8000</v>
+        <v>43100</v>
       </c>
       <c r="G35" s="3">
-        <v>1300</v>
+        <v>7400</v>
       </c>
       <c r="H35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1659,35 +1737,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79500</v>
+        <v>86500</v>
       </c>
       <c r="E41" s="3">
-        <v>153400</v>
+        <v>74300</v>
       </c>
       <c r="F41" s="3">
-        <v>148300</v>
+        <v>143300</v>
       </c>
       <c r="G41" s="3">
-        <v>44200</v>
+        <v>138600</v>
       </c>
       <c r="H41" s="3">
-        <v>24800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>41300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>23100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,23 +1854,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>111400</v>
+        <v>129500</v>
       </c>
       <c r="E42" s="3">
-        <v>59300</v>
+        <v>104000</v>
       </c>
       <c r="F42" s="3">
-        <v>26700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>55400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>24900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1801,32 +1890,35 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>180200</v>
+        <v>112000</v>
       </c>
       <c r="E43" s="3">
-        <v>166600</v>
+        <v>168300</v>
       </c>
       <c r="F43" s="3">
-        <v>76500</v>
+        <v>155600</v>
       </c>
       <c r="G43" s="3">
-        <v>49100</v>
+        <v>71500</v>
       </c>
       <c r="H43" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>45900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>11900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,29 +1932,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69300</v>
+        <v>84900</v>
       </c>
       <c r="E44" s="3">
-        <v>65900</v>
+        <v>64700</v>
       </c>
       <c r="F44" s="3">
-        <v>36600</v>
+        <v>61600</v>
       </c>
       <c r="G44" s="3">
-        <v>8000</v>
+        <v>34200</v>
       </c>
       <c r="H44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22100</v>
+        <v>21200</v>
       </c>
       <c r="E45" s="3">
-        <v>13400</v>
+        <v>20700</v>
       </c>
       <c r="F45" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>11300</v>
       </c>
       <c r="H45" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>3400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>462500</v>
+        <v>434100</v>
       </c>
       <c r="E46" s="3">
-        <v>458700</v>
+        <v>432000</v>
       </c>
       <c r="F46" s="3">
-        <v>300200</v>
+        <v>428500</v>
       </c>
       <c r="G46" s="3">
-        <v>105000</v>
+        <v>280400</v>
       </c>
       <c r="H46" s="3">
-        <v>43600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>98100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>40700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,17 +2049,20 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1975,8 +2079,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1984,29 +2088,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24600</v>
+        <v>33300</v>
       </c>
       <c r="E48" s="3">
-        <v>13700</v>
+        <v>23000</v>
       </c>
       <c r="F48" s="3">
-        <v>1800</v>
+        <v>12800</v>
       </c>
       <c r="G48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
-        <v>600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2020,23 +2127,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2053,12 +2163,15 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,29 +2244,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
+        <v>9200</v>
       </c>
       <c r="E52" s="3">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="F52" s="3">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>501600</v>
+        <v>482900</v>
       </c>
       <c r="E54" s="3">
-        <v>476800</v>
+        <v>468500</v>
       </c>
       <c r="F54" s="3">
-        <v>303400</v>
+        <v>445400</v>
       </c>
       <c r="G54" s="3">
-        <v>105900</v>
+        <v>283400</v>
       </c>
       <c r="H54" s="3">
-        <v>44500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>99000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>41500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,28 +2398,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>158000</v>
+        <v>157500</v>
       </c>
       <c r="E57" s="3">
-        <v>164600</v>
+        <v>147600</v>
       </c>
       <c r="F57" s="3">
-        <v>86500</v>
+        <v>153700</v>
       </c>
       <c r="G57" s="3">
-        <v>46000</v>
+        <v>80800</v>
       </c>
       <c r="H57" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>43000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>10800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19600</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>19100</v>
+        <v>18300</v>
       </c>
       <c r="F58" s="3">
-        <v>900</v>
+        <v>17800</v>
       </c>
       <c r="G58" s="3">
-        <v>5700</v>
+        <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2340,29 +2473,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80200</v>
+        <v>76600</v>
       </c>
       <c r="E59" s="3">
-        <v>73900</v>
+        <v>74900</v>
       </c>
       <c r="F59" s="3">
-        <v>46900</v>
+        <v>69100</v>
       </c>
       <c r="G59" s="3">
-        <v>16500</v>
+        <v>43800</v>
       </c>
       <c r="H59" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>15400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>257800</v>
+        <v>235000</v>
       </c>
       <c r="E60" s="3">
-        <v>257600</v>
+        <v>240800</v>
       </c>
       <c r="F60" s="3">
-        <v>134400</v>
+        <v>240600</v>
       </c>
       <c r="G60" s="3">
-        <v>68200</v>
+        <v>125500</v>
       </c>
       <c r="H60" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>63700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>20200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,14 +2551,17 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2448,29 +2590,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>260700</v>
+        <v>240100</v>
       </c>
       <c r="E66" s="3">
-        <v>260900</v>
+        <v>243500</v>
       </c>
       <c r="F66" s="3">
-        <v>134900</v>
+        <v>243700</v>
       </c>
       <c r="G66" s="3">
-        <v>68300</v>
+        <v>126000</v>
       </c>
       <c r="H66" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>63800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>20200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>23900</v>
+        <v>22300</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>22300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57300</v>
+        <v>66300</v>
       </c>
       <c r="E72" s="3">
-        <v>30900</v>
+        <v>53500</v>
       </c>
       <c r="F72" s="3">
-        <v>-15100</v>
+        <v>28800</v>
       </c>
       <c r="G72" s="3">
-        <v>-25400</v>
+        <v>-14100</v>
       </c>
       <c r="H72" s="3">
-        <v>-39100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-23700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-36500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,29 +3114,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>240900</v>
+        <v>242800</v>
       </c>
       <c r="E76" s="3">
-        <v>215900</v>
+        <v>225000</v>
       </c>
       <c r="F76" s="3">
-        <v>168500</v>
+        <v>201700</v>
       </c>
       <c r="G76" s="3">
-        <v>13900</v>
+        <v>157400</v>
       </c>
       <c r="H76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>12900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3192,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,30 +3236,33 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27300</v>
+        <v>13100</v>
       </c>
       <c r="E81" s="3">
-        <v>46100</v>
+        <v>25500</v>
       </c>
       <c r="F81" s="3">
-        <v>8000</v>
+        <v>43100</v>
       </c>
       <c r="G81" s="3">
-        <v>1300</v>
+        <v>7400</v>
       </c>
       <c r="H81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,19 +3295,20 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8600</v>
+        <v>10600</v>
       </c>
       <c r="E83" s="3">
-        <v>3700</v>
+        <v>8000</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>3500</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3118,8 +3316,8 @@
       <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29200</v>
+        <v>45500</v>
       </c>
       <c r="E89" s="3">
-        <v>38700</v>
+        <v>27300</v>
       </c>
       <c r="F89" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="G89" s="3">
-        <v>19500</v>
+        <v>32800</v>
       </c>
       <c r="H89" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,28 +3585,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7600</v>
+        <v>-15200</v>
       </c>
       <c r="E91" s="3">
-        <v>-10100</v>
+        <v>-7100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2200</v>
+        <v>-9400</v>
       </c>
       <c r="G91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-68300</v>
+        <v>-39100</v>
       </c>
       <c r="E94" s="3">
-        <v>-42400</v>
+        <v>-63800</v>
       </c>
       <c r="F94" s="3">
-        <v>-24000</v>
+        <v>-39600</v>
       </c>
       <c r="G94" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3535,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-7400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-6900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-23100</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>7700</v>
+        <v>-21600</v>
       </c>
       <c r="F100" s="3">
-        <v>95400</v>
+        <v>7200</v>
       </c>
       <c r="G100" s="3">
+        <v>89100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>1900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,29 +3950,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5400</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
-        <v>1300</v>
+        <v>-5000</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-400</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>500</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3741,29 +3989,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-67600</v>
+        <v>7100</v>
       </c>
       <c r="E102" s="3">
-        <v>5200</v>
+        <v>-63100</v>
       </c>
       <c r="F102" s="3">
-        <v>108800</v>
+        <v>4900</v>
       </c>
       <c r="G102" s="3">
-        <v>19400</v>
+        <v>101700</v>
       </c>
       <c r="H102" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>781600</v>
+        <v>774500</v>
       </c>
       <c r="E8" s="3">
-        <v>858500</v>
+        <v>850700</v>
       </c>
       <c r="F8" s="3">
-        <v>684900</v>
+        <v>678700</v>
       </c>
       <c r="G8" s="3">
-        <v>377400</v>
+        <v>374000</v>
       </c>
       <c r="H8" s="3">
-        <v>128700</v>
+        <v>127500</v>
       </c>
       <c r="I8" s="3">
-        <v>46100</v>
+        <v>45600</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>605000</v>
+        <v>599600</v>
       </c>
       <c r="E9" s="3">
-        <v>698900</v>
+        <v>692600</v>
       </c>
       <c r="F9" s="3">
-        <v>525400</v>
+        <v>520600</v>
       </c>
       <c r="G9" s="3">
-        <v>271600</v>
+        <v>269200</v>
       </c>
       <c r="H9" s="3">
-        <v>88100</v>
+        <v>87300</v>
       </c>
       <c r="I9" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>176500</v>
+        <v>175000</v>
       </c>
       <c r="E10" s="3">
-        <v>159600</v>
+        <v>158100</v>
       </c>
       <c r="F10" s="3">
-        <v>159500</v>
+        <v>158100</v>
       </c>
       <c r="G10" s="3">
-        <v>105800</v>
+        <v>104800</v>
       </c>
       <c r="H10" s="3">
-        <v>40600</v>
+        <v>40200</v>
       </c>
       <c r="I10" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="E12" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="F12" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="G12" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="H12" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="I12" s="3">
         <v>4400</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>772000</v>
+        <v>765100</v>
       </c>
       <c r="E17" s="3">
-        <v>831400</v>
+        <v>823800</v>
       </c>
       <c r="F17" s="3">
-        <v>639000</v>
+        <v>633300</v>
       </c>
       <c r="G17" s="3">
-        <v>365600</v>
+        <v>362300</v>
       </c>
       <c r="H17" s="3">
-        <v>113100</v>
+        <v>112100</v>
       </c>
       <c r="I17" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,19 +1067,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="E18" s="3">
-        <v>27100</v>
+        <v>26900</v>
       </c>
       <c r="F18" s="3">
-        <v>45800</v>
+        <v>45400</v>
       </c>
       <c r="G18" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H18" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="I18" s="3">
         <v>2100</v>
@@ -1126,7 +1126,7 @@
         <v>4400</v>
       </c>
       <c r="E20" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
         <v>4100</v>
@@ -1162,19 +1162,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24700</v>
+        <v>24300</v>
       </c>
       <c r="E21" s="3">
-        <v>40200</v>
+        <v>39700</v>
       </c>
       <c r="F21" s="3">
-        <v>53500</v>
+        <v>52900</v>
       </c>
       <c r="G21" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="H21" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="I21" s="3">
         <v>2200</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="E23" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="F23" s="3">
-        <v>50000</v>
+        <v>49500</v>
       </c>
       <c r="G23" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="H23" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="I23" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1282,16 +1282,16 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F24" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G24" s="3">
         <v>3500</v>
       </c>
       <c r="H24" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="3">
         <v>-300</v>
@@ -1357,19 +1357,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="E26" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="F26" s="3">
-        <v>43300</v>
+        <v>42900</v>
       </c>
       <c r="G26" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="H26" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="I26" s="3">
         <v>2400</v>
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="E27" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="F27" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="G27" s="3">
         <v>7400</v>
@@ -1594,7 +1594,7 @@
         <v>-4400</v>
       </c>
       <c r="E32" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
         <v>-4100</v>
@@ -1630,13 +1630,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="E33" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="F33" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="G33" s="3">
         <v>7400</v>
@@ -1708,13 +1708,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="E35" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="F35" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="G35" s="3">
         <v>7400</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86500</v>
+        <v>85700</v>
       </c>
       <c r="E41" s="3">
-        <v>74300</v>
+        <v>73600</v>
       </c>
       <c r="F41" s="3">
-        <v>143300</v>
+        <v>142000</v>
       </c>
       <c r="G41" s="3">
-        <v>138600</v>
+        <v>137300</v>
       </c>
       <c r="H41" s="3">
-        <v>41300</v>
+        <v>40900</v>
       </c>
       <c r="I41" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,16 +1864,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>129500</v>
+        <v>128300</v>
       </c>
       <c r="E42" s="3">
-        <v>104000</v>
+        <v>103100</v>
       </c>
       <c r="F42" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="G42" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112000</v>
+        <v>111000</v>
       </c>
       <c r="E43" s="3">
-        <v>168300</v>
+        <v>166800</v>
       </c>
       <c r="F43" s="3">
-        <v>155600</v>
+        <v>154200</v>
       </c>
       <c r="G43" s="3">
-        <v>71500</v>
+        <v>70800</v>
       </c>
       <c r="H43" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="I43" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,22 +1942,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>84900</v>
+        <v>84200</v>
       </c>
       <c r="E44" s="3">
-        <v>64700</v>
+        <v>64200</v>
       </c>
       <c r="F44" s="3">
-        <v>61600</v>
+        <v>61000</v>
       </c>
       <c r="G44" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="H44" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I44" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1981,16 +1981,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="E45" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="F45" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="G45" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="H45" s="3">
         <v>3400</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>434100</v>
+        <v>430200</v>
       </c>
       <c r="E46" s="3">
-        <v>432000</v>
+        <v>428100</v>
       </c>
       <c r="F46" s="3">
-        <v>428500</v>
+        <v>424600</v>
       </c>
       <c r="G46" s="3">
-        <v>280400</v>
+        <v>277900</v>
       </c>
       <c r="H46" s="3">
-        <v>98100</v>
+        <v>97200</v>
       </c>
       <c r="I46" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2062,7 +2062,7 @@
         <v>4400</v>
       </c>
       <c r="E47" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2098,13 +2098,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="E48" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="F48" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="G48" s="3">
         <v>1700</v>
@@ -2254,13 +2254,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
         <v>5000</v>
       </c>
       <c r="F52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>482900</v>
+        <v>478500</v>
       </c>
       <c r="E54" s="3">
-        <v>468500</v>
+        <v>464300</v>
       </c>
       <c r="F54" s="3">
-        <v>445400</v>
+        <v>441400</v>
       </c>
       <c r="G54" s="3">
-        <v>283400</v>
+        <v>280800</v>
       </c>
       <c r="H54" s="3">
-        <v>99000</v>
+        <v>98100</v>
       </c>
       <c r="I54" s="3">
-        <v>41500</v>
+        <v>41200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>157500</v>
+        <v>156100</v>
       </c>
       <c r="E57" s="3">
-        <v>147600</v>
+        <v>146200</v>
       </c>
       <c r="F57" s="3">
-        <v>153700</v>
+        <v>152300</v>
       </c>
       <c r="G57" s="3">
-        <v>80800</v>
+        <v>80100</v>
       </c>
       <c r="H57" s="3">
-        <v>43000</v>
+        <v>42600</v>
       </c>
       <c r="I57" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2447,10 +2447,10 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="F58" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
@@ -2459,7 +2459,7 @@
         <v>5300</v>
       </c>
       <c r="I58" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76600</v>
+        <v>75900</v>
       </c>
       <c r="E59" s="3">
-        <v>74900</v>
+        <v>74300</v>
       </c>
       <c r="F59" s="3">
-        <v>69100</v>
+        <v>68400</v>
       </c>
       <c r="G59" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="H59" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="I59" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>235000</v>
+        <v>232800</v>
       </c>
       <c r="E60" s="3">
-        <v>240800</v>
+        <v>238600</v>
       </c>
       <c r="F60" s="3">
-        <v>240600</v>
+        <v>238400</v>
       </c>
       <c r="G60" s="3">
-        <v>125500</v>
+        <v>124400</v>
       </c>
       <c r="H60" s="3">
-        <v>63700</v>
+        <v>63100</v>
       </c>
       <c r="I60" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>240100</v>
+        <v>237900</v>
       </c>
       <c r="E66" s="3">
-        <v>243500</v>
+        <v>241300</v>
       </c>
       <c r="F66" s="3">
-        <v>243700</v>
+        <v>241500</v>
       </c>
       <c r="G66" s="3">
-        <v>126000</v>
+        <v>124900</v>
       </c>
       <c r="H66" s="3">
-        <v>63800</v>
+        <v>63200</v>
       </c>
       <c r="I66" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="I70" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66300</v>
+        <v>65700</v>
       </c>
       <c r="E72" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="F72" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="G72" s="3">
-        <v>-14100</v>
+        <v>-13900</v>
       </c>
       <c r="H72" s="3">
-        <v>-23700</v>
+        <v>-23500</v>
       </c>
       <c r="I72" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,19 +3124,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>242800</v>
+        <v>240600</v>
       </c>
       <c r="E76" s="3">
-        <v>225000</v>
+        <v>223000</v>
       </c>
       <c r="F76" s="3">
-        <v>201700</v>
+        <v>199900</v>
       </c>
       <c r="G76" s="3">
-        <v>157400</v>
+        <v>155900</v>
       </c>
       <c r="H76" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="I76" s="3">
         <v>-900</v>
@@ -3246,13 +3246,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="E81" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="F81" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="G81" s="3">
         <v>7400</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E83" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="F83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3536,19 +3536,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="E89" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="F89" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="G89" s="3">
-        <v>32800</v>
+        <v>32500</v>
       </c>
       <c r="H89" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="I89" s="3">
         <v>2300</v>
@@ -3592,13 +3592,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15200</v>
+        <v>-15100</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="F91" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="G91" s="3">
         <v>-2000</v>
@@ -3709,16 +3709,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39100</v>
+        <v>-38700</v>
       </c>
       <c r="E94" s="3">
-        <v>-63800</v>
+        <v>-63200</v>
       </c>
       <c r="F94" s="3">
-        <v>-39600</v>
+        <v>-39300</v>
       </c>
       <c r="G94" s="3">
-        <v>-22400</v>
+        <v>-22200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3924,13 +3924,13 @@
         <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>-21600</v>
+        <v>-21400</v>
       </c>
       <c r="F100" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="G100" s="3">
-        <v>89100</v>
+        <v>88300</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
@@ -3999,19 +3999,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E102" s="3">
-        <v>-63100</v>
+        <v>-62500</v>
       </c>
       <c r="F102" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G102" s="3">
-        <v>101700</v>
+        <v>100700</v>
       </c>
       <c r="H102" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="I102" s="3">
         <v>4400</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>774500</v>
+        <v>738300</v>
       </c>
       <c r="E8" s="3">
-        <v>850700</v>
+        <v>810900</v>
       </c>
       <c r="F8" s="3">
-        <v>678700</v>
+        <v>646900</v>
       </c>
       <c r="G8" s="3">
-        <v>374000</v>
+        <v>356500</v>
       </c>
       <c r="H8" s="3">
-        <v>127500</v>
+        <v>121600</v>
       </c>
       <c r="I8" s="3">
-        <v>45600</v>
+        <v>43500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>599600</v>
+        <v>571500</v>
       </c>
       <c r="E9" s="3">
-        <v>692600</v>
+        <v>660200</v>
       </c>
       <c r="F9" s="3">
-        <v>520600</v>
+        <v>496300</v>
       </c>
       <c r="G9" s="3">
-        <v>269200</v>
+        <v>256600</v>
       </c>
       <c r="H9" s="3">
-        <v>87300</v>
+        <v>83200</v>
       </c>
       <c r="I9" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>175000</v>
+        <v>166800</v>
       </c>
       <c r="E10" s="3">
-        <v>158100</v>
+        <v>150700</v>
       </c>
       <c r="F10" s="3">
-        <v>158100</v>
+        <v>150700</v>
       </c>
       <c r="G10" s="3">
-        <v>104800</v>
+        <v>99900</v>
       </c>
       <c r="H10" s="3">
-        <v>40200</v>
+        <v>38300</v>
       </c>
       <c r="I10" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>45500</v>
+        <v>43400</v>
       </c>
       <c r="E12" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="F12" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="G12" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="H12" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="I12" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>765100</v>
+        <v>729300</v>
       </c>
       <c r="E17" s="3">
-        <v>823800</v>
+        <v>785300</v>
       </c>
       <c r="F17" s="3">
-        <v>633300</v>
+        <v>603600</v>
       </c>
       <c r="G17" s="3">
-        <v>362300</v>
+        <v>345300</v>
       </c>
       <c r="H17" s="3">
-        <v>112100</v>
+        <v>106900</v>
       </c>
       <c r="I17" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="E18" s="3">
-        <v>26900</v>
+        <v>25600</v>
       </c>
       <c r="F18" s="3">
-        <v>45400</v>
+        <v>43300</v>
       </c>
       <c r="G18" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="H18" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="I18" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F20" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G20" s="3">
         <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24300</v>
+        <v>23100</v>
       </c>
       <c r="E21" s="3">
-        <v>39700</v>
+        <v>37800</v>
       </c>
       <c r="F21" s="3">
-        <v>52900</v>
+        <v>50400</v>
       </c>
       <c r="G21" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="H21" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="I21" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="E23" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="F23" s="3">
-        <v>49500</v>
+        <v>47200</v>
       </c>
       <c r="G23" s="3">
-        <v>13100</v>
+        <v>12400</v>
       </c>
       <c r="H23" s="3">
-        <v>15800</v>
+        <v>15000</v>
       </c>
       <c r="I23" s="3">
         <v>2000</v>
@@ -1282,16 +1282,16 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F24" s="3">
         <v>6300</v>
       </c>
-      <c r="F24" s="3">
-        <v>6600</v>
-      </c>
       <c r="G24" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I24" s="3">
         <v>-300</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>40900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H26" s="3">
         <v>13000</v>
       </c>
-      <c r="E26" s="3">
-        <v>25500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>42900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>13600</v>
-      </c>
       <c r="I26" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,19 +1396,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="E27" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="F27" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="G27" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H27" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="F32" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G32" s="3">
         <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1630,19 +1630,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="E33" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="F33" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="G33" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H33" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
@@ -1708,19 +1708,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="E35" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="F35" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="G35" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H35" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85700</v>
+        <v>81700</v>
       </c>
       <c r="E41" s="3">
-        <v>73600</v>
+        <v>70200</v>
       </c>
       <c r="F41" s="3">
-        <v>142000</v>
+        <v>135400</v>
       </c>
       <c r="G41" s="3">
-        <v>137300</v>
+        <v>130900</v>
       </c>
       <c r="H41" s="3">
-        <v>40900</v>
+        <v>39000</v>
       </c>
       <c r="I41" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,16 +1864,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>128300</v>
+        <v>122300</v>
       </c>
       <c r="E42" s="3">
-        <v>103100</v>
+        <v>98300</v>
       </c>
       <c r="F42" s="3">
-        <v>54900</v>
+        <v>52400</v>
       </c>
       <c r="G42" s="3">
-        <v>24700</v>
+        <v>23500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>111000</v>
+        <v>105800</v>
       </c>
       <c r="E43" s="3">
-        <v>166800</v>
+        <v>159000</v>
       </c>
       <c r="F43" s="3">
-        <v>154200</v>
+        <v>147000</v>
       </c>
       <c r="G43" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="H43" s="3">
-        <v>45500</v>
+        <v>43400</v>
       </c>
       <c r="I43" s="3">
-        <v>11800</v>
+        <v>11200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,22 +1942,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>84200</v>
+        <v>80200</v>
       </c>
       <c r="E44" s="3">
-        <v>64200</v>
+        <v>61200</v>
       </c>
       <c r="F44" s="3">
-        <v>61000</v>
+        <v>58200</v>
       </c>
       <c r="G44" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="H44" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="I44" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="3">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="F45" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="G45" s="3">
-        <v>11200</v>
+        <v>10600</v>
       </c>
       <c r="H45" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="I45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>430200</v>
+        <v>410100</v>
       </c>
       <c r="E46" s="3">
-        <v>428100</v>
+        <v>408100</v>
       </c>
       <c r="F46" s="3">
-        <v>424600</v>
+        <v>404700</v>
       </c>
       <c r="G46" s="3">
-        <v>277900</v>
+        <v>264900</v>
       </c>
       <c r="H46" s="3">
-        <v>97200</v>
+        <v>92600</v>
       </c>
       <c r="I46" s="3">
-        <v>40300</v>
+        <v>38400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,10 +2059,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E47" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2098,19 +2098,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33000</v>
+        <v>31500</v>
       </c>
       <c r="E48" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="F48" s="3">
-        <v>12700</v>
+        <v>12100</v>
       </c>
       <c r="G48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
         <v>1100</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="E52" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="F52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>478500</v>
+        <v>456100</v>
       </c>
       <c r="E54" s="3">
-        <v>464300</v>
+        <v>442600</v>
       </c>
       <c r="F54" s="3">
-        <v>441400</v>
+        <v>420700</v>
       </c>
       <c r="G54" s="3">
-        <v>280800</v>
+        <v>267700</v>
       </c>
       <c r="H54" s="3">
-        <v>98100</v>
+        <v>93500</v>
       </c>
       <c r="I54" s="3">
-        <v>41200</v>
+        <v>39200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156100</v>
+        <v>148800</v>
       </c>
       <c r="E57" s="3">
-        <v>146200</v>
+        <v>139400</v>
       </c>
       <c r="F57" s="3">
-        <v>152300</v>
+        <v>145200</v>
       </c>
       <c r="G57" s="3">
-        <v>80100</v>
+        <v>76300</v>
       </c>
       <c r="H57" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="I57" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2447,19 +2447,19 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="F58" s="3">
-        <v>17700</v>
+        <v>16800</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="I58" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75900</v>
+        <v>72400</v>
       </c>
       <c r="E59" s="3">
-        <v>74300</v>
+        <v>70800</v>
       </c>
       <c r="F59" s="3">
-        <v>68400</v>
+        <v>65200</v>
       </c>
       <c r="G59" s="3">
-        <v>43400</v>
+        <v>41400</v>
       </c>
       <c r="H59" s="3">
-        <v>15300</v>
+        <v>14600</v>
       </c>
       <c r="I59" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>232800</v>
+        <v>222000</v>
       </c>
       <c r="E60" s="3">
-        <v>238600</v>
+        <v>227500</v>
       </c>
       <c r="F60" s="3">
-        <v>238400</v>
+        <v>227300</v>
       </c>
       <c r="G60" s="3">
-        <v>124400</v>
+        <v>118600</v>
       </c>
       <c r="H60" s="3">
-        <v>63100</v>
+        <v>60200</v>
       </c>
       <c r="I60" s="3">
-        <v>20000</v>
+        <v>19100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,7 +2561,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>237900</v>
+        <v>226800</v>
       </c>
       <c r="E66" s="3">
-        <v>241300</v>
+        <v>230000</v>
       </c>
       <c r="F66" s="3">
-        <v>241500</v>
+        <v>230200</v>
       </c>
       <c r="G66" s="3">
-        <v>124900</v>
+        <v>119000</v>
       </c>
       <c r="H66" s="3">
-        <v>63200</v>
+        <v>60300</v>
       </c>
       <c r="I66" s="3">
-        <v>20000</v>
+        <v>19100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>22100</v>
+        <v>21000</v>
       </c>
       <c r="I70" s="3">
-        <v>22100</v>
+        <v>21100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>65700</v>
+        <v>62600</v>
       </c>
       <c r="E72" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="F72" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="G72" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="H72" s="3">
-        <v>-23500</v>
+        <v>-22400</v>
       </c>
       <c r="I72" s="3">
-        <v>-36200</v>
+        <v>-34500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,19 +3124,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>240600</v>
+        <v>229300</v>
       </c>
       <c r="E76" s="3">
-        <v>223000</v>
+        <v>212600</v>
       </c>
       <c r="F76" s="3">
-        <v>199900</v>
+        <v>190500</v>
       </c>
       <c r="G76" s="3">
-        <v>155900</v>
+        <v>148600</v>
       </c>
       <c r="H76" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="I76" s="3">
         <v>-900</v>
@@ -3246,19 +3246,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="E81" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="F81" s="3">
-        <v>42700</v>
+        <v>40700</v>
       </c>
       <c r="G81" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H81" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="E83" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="F83" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="E89" s="3">
-        <v>27000</v>
+        <v>25800</v>
       </c>
       <c r="F89" s="3">
-        <v>35800</v>
+        <v>34200</v>
       </c>
       <c r="G89" s="3">
-        <v>32500</v>
+        <v>30900</v>
       </c>
       <c r="H89" s="3">
-        <v>18100</v>
+        <v>17200</v>
       </c>
       <c r="I89" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="E91" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
-        <v>-9300</v>
+        <v>-8900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -3709,16 +3709,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-38700</v>
+        <v>-36900</v>
       </c>
       <c r="E94" s="3">
-        <v>-63200</v>
+        <v>-60300</v>
       </c>
       <c r="F94" s="3">
-        <v>-39300</v>
+        <v>-37400</v>
       </c>
       <c r="G94" s="3">
-        <v>-22200</v>
+        <v>-21100</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E100" s="3">
-        <v>-21400</v>
+        <v>-20400</v>
       </c>
       <c r="F100" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="G100" s="3">
-        <v>88300</v>
+        <v>84200</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,16 +3960,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E101" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="F101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
         <v>-300</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="E102" s="3">
-        <v>-62500</v>
+        <v>-59600</v>
       </c>
       <c r="F102" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G102" s="3">
-        <v>100700</v>
+        <v>96000</v>
       </c>
       <c r="H102" s="3">
-        <v>18000</v>
+        <v>17100</v>
       </c>
       <c r="I102" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>738300</v>
+        <v>761700</v>
       </c>
       <c r="E8" s="3">
-        <v>810900</v>
+        <v>836700</v>
       </c>
       <c r="F8" s="3">
-        <v>646900</v>
+        <v>667500</v>
       </c>
       <c r="G8" s="3">
-        <v>356500</v>
+        <v>367800</v>
       </c>
       <c r="H8" s="3">
-        <v>121600</v>
+        <v>125400</v>
       </c>
       <c r="I8" s="3">
-        <v>43500</v>
+        <v>44900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>571500</v>
+        <v>589700</v>
       </c>
       <c r="E9" s="3">
-        <v>660200</v>
+        <v>681100</v>
       </c>
       <c r="F9" s="3">
-        <v>496300</v>
+        <v>512000</v>
       </c>
       <c r="G9" s="3">
-        <v>256600</v>
+        <v>264800</v>
       </c>
       <c r="H9" s="3">
-        <v>83200</v>
+        <v>85900</v>
       </c>
       <c r="I9" s="3">
-        <v>32400</v>
+        <v>33400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>166800</v>
+        <v>172100</v>
       </c>
       <c r="E10" s="3">
-        <v>150700</v>
+        <v>155500</v>
       </c>
       <c r="F10" s="3">
-        <v>150700</v>
+        <v>155500</v>
       </c>
       <c r="G10" s="3">
-        <v>99900</v>
+        <v>103100</v>
       </c>
       <c r="H10" s="3">
-        <v>38300</v>
+        <v>39500</v>
       </c>
       <c r="I10" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>43400</v>
+        <v>44800</v>
       </c>
       <c r="E12" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="F12" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="G12" s="3">
-        <v>17300</v>
+        <v>17800</v>
       </c>
       <c r="H12" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="I12" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>729300</v>
+        <v>752400</v>
       </c>
       <c r="E17" s="3">
-        <v>785300</v>
+        <v>810300</v>
       </c>
       <c r="F17" s="3">
-        <v>603600</v>
+        <v>622800</v>
       </c>
       <c r="G17" s="3">
-        <v>345300</v>
+        <v>356300</v>
       </c>
       <c r="H17" s="3">
-        <v>106900</v>
+        <v>110300</v>
       </c>
       <c r="I17" s="3">
-        <v>41500</v>
+        <v>42800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="E18" s="3">
-        <v>25600</v>
+        <v>26400</v>
       </c>
       <c r="F18" s="3">
-        <v>43300</v>
+        <v>44700</v>
       </c>
       <c r="G18" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="H18" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="I18" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G20" s="3">
         <v>1300</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="E21" s="3">
-        <v>37800</v>
+        <v>39100</v>
       </c>
       <c r="F21" s="3">
-        <v>50400</v>
+        <v>52100</v>
       </c>
       <c r="G21" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="H21" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="I21" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="E23" s="3">
-        <v>30300</v>
+        <v>31300</v>
       </c>
       <c r="F23" s="3">
-        <v>47200</v>
+        <v>48700</v>
       </c>
       <c r="G23" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="H23" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="I23" s="3">
         <v>2000</v>
@@ -1282,16 +1282,16 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F24" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G24" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="3">
         <v>-300</v>
@@ -1357,19 +1357,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="E26" s="3">
-        <v>24300</v>
+        <v>25100</v>
       </c>
       <c r="F26" s="3">
-        <v>40900</v>
+        <v>42200</v>
       </c>
       <c r="G26" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H26" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="I26" s="3">
         <v>2300</v>
@@ -1396,19 +1396,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="E27" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="F27" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="G27" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H27" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="G32" s="3">
         <v>-1300</v>
@@ -1630,19 +1630,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="E33" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="F33" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="G33" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H33" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
@@ -1708,19 +1708,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="E35" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="F35" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="G35" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H35" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81700</v>
+        <v>84300</v>
       </c>
       <c r="E41" s="3">
-        <v>70200</v>
+        <v>72400</v>
       </c>
       <c r="F41" s="3">
-        <v>135400</v>
+        <v>139700</v>
       </c>
       <c r="G41" s="3">
-        <v>130900</v>
+        <v>135000</v>
       </c>
       <c r="H41" s="3">
-        <v>39000</v>
+        <v>40200</v>
       </c>
       <c r="I41" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,16 +1864,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>122300</v>
+        <v>126200</v>
       </c>
       <c r="E42" s="3">
-        <v>98300</v>
+        <v>101400</v>
       </c>
       <c r="F42" s="3">
-        <v>52400</v>
+        <v>54000</v>
       </c>
       <c r="G42" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>105800</v>
+        <v>109100</v>
       </c>
       <c r="E43" s="3">
-        <v>159000</v>
+        <v>164000</v>
       </c>
       <c r="F43" s="3">
-        <v>147000</v>
+        <v>151600</v>
       </c>
       <c r="G43" s="3">
-        <v>67500</v>
+        <v>69700</v>
       </c>
       <c r="H43" s="3">
-        <v>43400</v>
+        <v>44700</v>
       </c>
       <c r="I43" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,22 +1942,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>80200</v>
+        <v>82800</v>
       </c>
       <c r="E44" s="3">
-        <v>61200</v>
+        <v>63100</v>
       </c>
       <c r="F44" s="3">
-        <v>58200</v>
+        <v>60000</v>
       </c>
       <c r="G44" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="H44" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="I44" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="E45" s="3">
-        <v>19500</v>
+        <v>20100</v>
       </c>
       <c r="F45" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="G45" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="H45" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>410100</v>
+        <v>423100</v>
       </c>
       <c r="E46" s="3">
-        <v>408100</v>
+        <v>421100</v>
       </c>
       <c r="F46" s="3">
-        <v>404700</v>
+        <v>417600</v>
       </c>
       <c r="G46" s="3">
-        <v>264900</v>
+        <v>273300</v>
       </c>
       <c r="H46" s="3">
-        <v>92600</v>
+        <v>95600</v>
       </c>
       <c r="I46" s="3">
-        <v>38400</v>
+        <v>39700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,10 +2059,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E47" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2098,13 +2098,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31500</v>
+        <v>32500</v>
       </c>
       <c r="E48" s="3">
-        <v>21700</v>
+        <v>22400</v>
       </c>
       <c r="F48" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="G48" s="3">
         <v>1600</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="E52" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>456100</v>
+        <v>470600</v>
       </c>
       <c r="E54" s="3">
-        <v>442600</v>
+        <v>456600</v>
       </c>
       <c r="F54" s="3">
-        <v>420700</v>
+        <v>434100</v>
       </c>
       <c r="G54" s="3">
-        <v>267700</v>
+        <v>276200</v>
       </c>
       <c r="H54" s="3">
-        <v>93500</v>
+        <v>96500</v>
       </c>
       <c r="I54" s="3">
-        <v>39200</v>
+        <v>40500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>148800</v>
+        <v>153500</v>
       </c>
       <c r="E57" s="3">
-        <v>139400</v>
+        <v>143800</v>
       </c>
       <c r="F57" s="3">
-        <v>145200</v>
+        <v>149800</v>
       </c>
       <c r="G57" s="3">
-        <v>76300</v>
+        <v>78800</v>
       </c>
       <c r="H57" s="3">
-        <v>40600</v>
+        <v>41900</v>
       </c>
       <c r="I57" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2447,19 +2447,19 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>17300</v>
+        <v>17800</v>
       </c>
       <c r="F58" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="I58" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72400</v>
+        <v>74700</v>
       </c>
       <c r="E59" s="3">
-        <v>70800</v>
+        <v>73000</v>
       </c>
       <c r="F59" s="3">
-        <v>65200</v>
+        <v>67300</v>
       </c>
       <c r="G59" s="3">
-        <v>41400</v>
+        <v>42700</v>
       </c>
       <c r="H59" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="I59" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>222000</v>
+        <v>229000</v>
       </c>
       <c r="E60" s="3">
-        <v>227500</v>
+        <v>234700</v>
       </c>
       <c r="F60" s="3">
-        <v>227300</v>
+        <v>234500</v>
       </c>
       <c r="G60" s="3">
-        <v>118600</v>
+        <v>122300</v>
       </c>
       <c r="H60" s="3">
-        <v>60200</v>
+        <v>62100</v>
       </c>
       <c r="I60" s="3">
-        <v>19100</v>
+        <v>19700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,7 +2561,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>226800</v>
+        <v>234000</v>
       </c>
       <c r="E66" s="3">
-        <v>230000</v>
+        <v>237300</v>
       </c>
       <c r="F66" s="3">
-        <v>230200</v>
+        <v>237500</v>
       </c>
       <c r="G66" s="3">
-        <v>119000</v>
+        <v>122800</v>
       </c>
       <c r="H66" s="3">
-        <v>60300</v>
+        <v>62200</v>
       </c>
       <c r="I66" s="3">
-        <v>19100</v>
+        <v>19700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="I70" s="3">
-        <v>21100</v>
+        <v>21700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>62600</v>
+        <v>64600</v>
       </c>
       <c r="E72" s="3">
-        <v>50500</v>
+        <v>52100</v>
       </c>
       <c r="F72" s="3">
-        <v>27200</v>
+        <v>28100</v>
       </c>
       <c r="G72" s="3">
-        <v>-13300</v>
+        <v>-13700</v>
       </c>
       <c r="H72" s="3">
-        <v>-22400</v>
+        <v>-23100</v>
       </c>
       <c r="I72" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,19 +3124,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>229300</v>
+        <v>236600</v>
       </c>
       <c r="E76" s="3">
-        <v>212600</v>
+        <v>219300</v>
       </c>
       <c r="F76" s="3">
-        <v>190500</v>
+        <v>196600</v>
       </c>
       <c r="G76" s="3">
-        <v>148600</v>
+        <v>153400</v>
       </c>
       <c r="H76" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="I76" s="3">
         <v>-900</v>
@@ -3246,19 +3246,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="E81" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="F81" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="G81" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H81" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="E83" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="F83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3536,19 +3536,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43000</v>
+        <v>44400</v>
       </c>
       <c r="E89" s="3">
-        <v>25800</v>
+        <v>26600</v>
       </c>
       <c r="F89" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="G89" s="3">
-        <v>30900</v>
+        <v>31900</v>
       </c>
       <c r="H89" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="I89" s="3">
         <v>2200</v>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="E91" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="F91" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -3709,16 +3709,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36900</v>
+        <v>-38100</v>
       </c>
       <c r="E94" s="3">
-        <v>-60300</v>
+        <v>-62200</v>
       </c>
       <c r="F94" s="3">
-        <v>-37400</v>
+        <v>-38600</v>
       </c>
       <c r="G94" s="3">
-        <v>-21100</v>
+        <v>-21800</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>-20400</v>
+        <v>-21000</v>
       </c>
       <c r="F100" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="G100" s="3">
-        <v>84200</v>
+        <v>86900</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3963,13 +3963,13 @@
         <v>-1800</v>
       </c>
       <c r="E101" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
         <v>-300</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="E102" s="3">
-        <v>-59600</v>
+        <v>-61500</v>
       </c>
       <c r="F102" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G102" s="3">
-        <v>96000</v>
+        <v>99100</v>
       </c>
       <c r="H102" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="I102" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,32 +717,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>761700</v>
+        <v>459500</v>
       </c>
       <c r="E8" s="3">
-        <v>836700</v>
+        <v>753900</v>
       </c>
       <c r="F8" s="3">
-        <v>667500</v>
+        <v>828100</v>
       </c>
       <c r="G8" s="3">
-        <v>367800</v>
+        <v>660600</v>
       </c>
       <c r="H8" s="3">
-        <v>125400</v>
+        <v>364100</v>
       </c>
       <c r="I8" s="3">
-        <v>44900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>124100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -756,32 +759,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>589700</v>
+        <v>354800</v>
       </c>
       <c r="E9" s="3">
-        <v>681100</v>
+        <v>583600</v>
       </c>
       <c r="F9" s="3">
-        <v>512000</v>
+        <v>674200</v>
       </c>
       <c r="G9" s="3">
-        <v>264800</v>
+        <v>506800</v>
       </c>
       <c r="H9" s="3">
-        <v>85900</v>
+        <v>262000</v>
       </c>
       <c r="I9" s="3">
-        <v>33400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>85000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>33100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -795,32 +801,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>172100</v>
+        <v>104800</v>
       </c>
       <c r="E10" s="3">
-        <v>155500</v>
+        <v>170300</v>
       </c>
       <c r="F10" s="3">
-        <v>155500</v>
+        <v>153900</v>
       </c>
       <c r="G10" s="3">
-        <v>103100</v>
+        <v>153900</v>
       </c>
       <c r="H10" s="3">
-        <v>39500</v>
+        <v>102000</v>
       </c>
       <c r="I10" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>39100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,32 +864,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>44800</v>
+        <v>42600</v>
       </c>
       <c r="E12" s="3">
-        <v>38200</v>
+        <v>44300</v>
       </c>
       <c r="F12" s="3">
-        <v>29400</v>
+        <v>37800</v>
       </c>
       <c r="G12" s="3">
-        <v>17800</v>
+        <v>29100</v>
       </c>
       <c r="H12" s="3">
-        <v>8700</v>
+        <v>17700</v>
       </c>
       <c r="I12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,9 +945,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,12 +984,15 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,12 +1026,15 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,31 +1047,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>752400</v>
+        <v>499000</v>
       </c>
       <c r="E17" s="3">
-        <v>810300</v>
+        <v>744700</v>
       </c>
       <c r="F17" s="3">
-        <v>622800</v>
+        <v>802000</v>
       </c>
       <c r="G17" s="3">
-        <v>356300</v>
+        <v>616400</v>
       </c>
       <c r="H17" s="3">
-        <v>110300</v>
+        <v>352700</v>
       </c>
       <c r="I17" s="3">
-        <v>42800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>109100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1060,32 +1086,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9300</v>
+        <v>-39400</v>
       </c>
       <c r="E18" s="3">
-        <v>26400</v>
+        <v>9200</v>
       </c>
       <c r="F18" s="3">
-        <v>44700</v>
+        <v>26200</v>
       </c>
       <c r="G18" s="3">
-        <v>11500</v>
+        <v>44200</v>
       </c>
       <c r="H18" s="3">
-        <v>15200</v>
+        <v>11400</v>
       </c>
       <c r="I18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>15000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,31 +1149,32 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
-        <v>4900</v>
-      </c>
       <c r="F20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1155,33 +1188,36 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24000</v>
+        <v>-24900</v>
       </c>
       <c r="E21" s="3">
-        <v>39100</v>
+        <v>23800</v>
       </c>
       <c r="F21" s="3">
-        <v>52100</v>
+        <v>38700</v>
       </c>
       <c r="G21" s="3">
-        <v>13200</v>
+        <v>51600</v>
       </c>
       <c r="H21" s="3">
-        <v>15700</v>
+        <v>13000</v>
       </c>
       <c r="I21" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J21" s="3">
         <v>2200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,9 +1230,12 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1230,36 +1269,39 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13600</v>
+        <v>-37600</v>
       </c>
       <c r="E23" s="3">
-        <v>31300</v>
+        <v>13500</v>
       </c>
       <c r="F23" s="3">
-        <v>48700</v>
+        <v>31000</v>
       </c>
       <c r="G23" s="3">
-        <v>12800</v>
+        <v>48200</v>
       </c>
       <c r="H23" s="3">
-        <v>15500</v>
+        <v>12700</v>
       </c>
       <c r="I23" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1272,33 +1314,36 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6200</v>
       </c>
-      <c r="F24" s="3">
-        <v>6500</v>
-      </c>
       <c r="G24" s="3">
-        <v>3500</v>
+        <v>6400</v>
       </c>
       <c r="H24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,33 +1398,36 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12800</v>
+        <v>-40200</v>
       </c>
       <c r="E26" s="3">
-        <v>25100</v>
+        <v>12600</v>
       </c>
       <c r="F26" s="3">
-        <v>42200</v>
+        <v>24800</v>
       </c>
       <c r="G26" s="3">
-        <v>9400</v>
+        <v>41800</v>
       </c>
       <c r="H26" s="3">
-        <v>13400</v>
+        <v>9300</v>
       </c>
       <c r="I26" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,33 +1440,36 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12700</v>
+        <v>-39200</v>
       </c>
       <c r="E27" s="3">
-        <v>24900</v>
+        <v>12600</v>
       </c>
       <c r="F27" s="3">
-        <v>42000</v>
+        <v>24600</v>
       </c>
       <c r="G27" s="3">
-        <v>7300</v>
+        <v>41500</v>
       </c>
       <c r="H27" s="3">
-        <v>1200</v>
+        <v>7200</v>
       </c>
       <c r="I27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1503,12 +1563,15 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,32 +1650,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-4900</v>
-      </c>
       <c r="F32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1623,33 +1692,36 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12700</v>
+        <v>-39200</v>
       </c>
       <c r="E33" s="3">
-        <v>24900</v>
+        <v>12600</v>
       </c>
       <c r="F33" s="3">
-        <v>42000</v>
+        <v>24600</v>
       </c>
       <c r="G33" s="3">
-        <v>7300</v>
+        <v>41500</v>
       </c>
       <c r="H33" s="3">
-        <v>1200</v>
+        <v>7200</v>
       </c>
       <c r="I33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,33 +1776,36 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12700</v>
+        <v>-39200</v>
       </c>
       <c r="E35" s="3">
-        <v>24900</v>
+        <v>12600</v>
       </c>
       <c r="F35" s="3">
-        <v>42000</v>
+        <v>24600</v>
       </c>
       <c r="G35" s="3">
-        <v>7300</v>
+        <v>41500</v>
       </c>
       <c r="H35" s="3">
-        <v>1200</v>
+        <v>7200</v>
       </c>
       <c r="I35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,38 +1818,41 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,9 +1865,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,31 +1904,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>84300</v>
+        <v>104800</v>
       </c>
       <c r="E41" s="3">
-        <v>72400</v>
+        <v>83400</v>
       </c>
       <c r="F41" s="3">
-        <v>139700</v>
+        <v>71700</v>
       </c>
       <c r="G41" s="3">
-        <v>135000</v>
+        <v>138200</v>
       </c>
       <c r="H41" s="3">
-        <v>40200</v>
+        <v>133700</v>
       </c>
       <c r="I41" s="3">
-        <v>22500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>39800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>22300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1857,26 +1943,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>126200</v>
+        <v>52400</v>
       </c>
       <c r="E42" s="3">
-        <v>101400</v>
+        <v>124900</v>
       </c>
       <c r="F42" s="3">
-        <v>54000</v>
+        <v>100400</v>
       </c>
       <c r="G42" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>53500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>24000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1893,35 +1982,38 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>109100</v>
+        <v>95500</v>
       </c>
       <c r="E43" s="3">
-        <v>164000</v>
+        <v>108000</v>
       </c>
       <c r="F43" s="3">
-        <v>151600</v>
+        <v>162400</v>
       </c>
       <c r="G43" s="3">
-        <v>69700</v>
+        <v>150100</v>
       </c>
       <c r="H43" s="3">
-        <v>44700</v>
+        <v>68900</v>
       </c>
       <c r="I43" s="3">
-        <v>11600</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>44300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>11400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1935,32 +2027,35 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>82800</v>
+        <v>71400</v>
       </c>
       <c r="E44" s="3">
-        <v>63100</v>
+        <v>81900</v>
       </c>
       <c r="F44" s="3">
-        <v>60000</v>
+        <v>62500</v>
       </c>
       <c r="G44" s="3">
-        <v>33300</v>
+        <v>59400</v>
       </c>
       <c r="H44" s="3">
-        <v>7300</v>
+        <v>33000</v>
       </c>
       <c r="I44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3400</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1974,33 +2069,36 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20600</v>
+        <v>30600</v>
       </c>
       <c r="E45" s="3">
-        <v>20100</v>
+        <v>20400</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>19900</v>
       </c>
       <c r="G45" s="3">
-        <v>11000</v>
+        <v>12100</v>
       </c>
       <c r="H45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,32 +2111,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>423100</v>
+        <v>354700</v>
       </c>
       <c r="E46" s="3">
-        <v>421100</v>
+        <v>418700</v>
       </c>
       <c r="F46" s="3">
-        <v>417600</v>
+        <v>416800</v>
       </c>
       <c r="G46" s="3">
-        <v>273300</v>
+        <v>413300</v>
       </c>
       <c r="H46" s="3">
-        <v>95600</v>
+        <v>270500</v>
       </c>
       <c r="I46" s="3">
-        <v>39700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>94600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>39300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2052,9 +2153,12 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2062,10 +2166,10 @@
         <v>4300</v>
       </c>
       <c r="E47" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2082,8 +2186,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2091,33 +2195,36 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32500</v>
+        <v>44300</v>
       </c>
       <c r="E48" s="3">
-        <v>22400</v>
+        <v>32100</v>
       </c>
       <c r="F48" s="3">
-        <v>12500</v>
+        <v>22200</v>
       </c>
       <c r="G48" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,26 +2237,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2166,12 +2276,15 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,33 +2363,36 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="E52" s="3">
-        <v>4900</v>
+        <v>8900</v>
       </c>
       <c r="F52" s="3">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="G52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,32 +2447,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>470600</v>
+        <v>410200</v>
       </c>
       <c r="E54" s="3">
-        <v>456600</v>
+        <v>465800</v>
       </c>
       <c r="F54" s="3">
-        <v>434100</v>
+        <v>452000</v>
       </c>
       <c r="G54" s="3">
-        <v>276200</v>
+        <v>429600</v>
       </c>
       <c r="H54" s="3">
-        <v>96500</v>
+        <v>273400</v>
       </c>
       <c r="I54" s="3">
-        <v>40500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>95500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>40100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,31 +2528,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153500</v>
+        <v>120000</v>
       </c>
       <c r="E57" s="3">
-        <v>143800</v>
+        <v>152000</v>
       </c>
       <c r="F57" s="3">
-        <v>149800</v>
+        <v>142300</v>
       </c>
       <c r="G57" s="3">
-        <v>78800</v>
+        <v>148300</v>
       </c>
       <c r="H57" s="3">
-        <v>41900</v>
+        <v>78000</v>
       </c>
       <c r="I57" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10400</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2437,33 +2567,36 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
-        <v>17800</v>
-      </c>
       <c r="F58" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="G58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
-        <v>5200</v>
-      </c>
       <c r="I58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J58" s="3">
         <v>4600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,33 +2609,36 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74700</v>
+        <v>64100</v>
       </c>
       <c r="E59" s="3">
-        <v>73000</v>
+        <v>73900</v>
       </c>
       <c r="F59" s="3">
-        <v>67300</v>
+        <v>72300</v>
       </c>
       <c r="G59" s="3">
-        <v>42700</v>
+        <v>66600</v>
       </c>
       <c r="H59" s="3">
-        <v>15000</v>
+        <v>42300</v>
       </c>
       <c r="I59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,32 +2651,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>229000</v>
+        <v>188600</v>
       </c>
       <c r="E60" s="3">
-        <v>234700</v>
+        <v>226700</v>
       </c>
       <c r="F60" s="3">
-        <v>234500</v>
+        <v>232300</v>
       </c>
       <c r="G60" s="3">
-        <v>122300</v>
+        <v>232100</v>
       </c>
       <c r="H60" s="3">
-        <v>62100</v>
+        <v>121100</v>
       </c>
       <c r="I60" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>61500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2554,18 +2693,21 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2593,32 +2735,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
         <v>2200</v>
       </c>
       <c r="F62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G62" s="3">
         <v>2200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,32 +2903,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>234000</v>
+        <v>206500</v>
       </c>
       <c r="E66" s="3">
-        <v>237300</v>
+        <v>231600</v>
       </c>
       <c r="F66" s="3">
-        <v>237500</v>
+        <v>234900</v>
       </c>
       <c r="G66" s="3">
-        <v>122800</v>
+        <v>235100</v>
       </c>
       <c r="H66" s="3">
-        <v>62200</v>
+        <v>121600</v>
       </c>
       <c r="I66" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>61500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>19500</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>21700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,32 +3131,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>64600</v>
+        <v>24800</v>
       </c>
       <c r="E72" s="3">
-        <v>52100</v>
+        <v>64000</v>
       </c>
       <c r="F72" s="3">
-        <v>28100</v>
+        <v>51600</v>
       </c>
       <c r="G72" s="3">
-        <v>-13700</v>
+        <v>27800</v>
       </c>
       <c r="H72" s="3">
-        <v>-23100</v>
+        <v>-13600</v>
       </c>
       <c r="I72" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-22900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-35200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,33 +3299,36 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>236600</v>
+        <v>203700</v>
       </c>
       <c r="E76" s="3">
-        <v>219300</v>
+        <v>234200</v>
       </c>
       <c r="F76" s="3">
-        <v>196600</v>
+        <v>217100</v>
       </c>
       <c r="G76" s="3">
-        <v>153400</v>
+        <v>194600</v>
       </c>
       <c r="H76" s="3">
-        <v>12600</v>
+        <v>151800</v>
       </c>
       <c r="I76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,38 +3383,41 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3239,33 +3430,36 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12700</v>
+        <v>-39200</v>
       </c>
       <c r="E81" s="3">
-        <v>24900</v>
+        <v>12600</v>
       </c>
       <c r="F81" s="3">
-        <v>42000</v>
+        <v>24600</v>
       </c>
       <c r="G81" s="3">
-        <v>7300</v>
+        <v>41500</v>
       </c>
       <c r="H81" s="3">
-        <v>1200</v>
+        <v>7200</v>
       </c>
       <c r="I81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,31 +3493,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10400</v>
+        <v>12600</v>
       </c>
       <c r="E83" s="3">
-        <v>7800</v>
+        <v>10300</v>
       </c>
       <c r="F83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,33 +3742,36 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44400</v>
+        <v>-40400</v>
       </c>
       <c r="E89" s="3">
-        <v>26600</v>
+        <v>43900</v>
       </c>
       <c r="F89" s="3">
-        <v>35300</v>
+        <v>26300</v>
       </c>
       <c r="G89" s="3">
-        <v>31900</v>
+        <v>34900</v>
       </c>
       <c r="H89" s="3">
-        <v>17800</v>
+        <v>31600</v>
       </c>
       <c r="I89" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,31 +3805,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14900</v>
+        <v>-27800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6900</v>
+        <v>-14700</v>
       </c>
       <c r="F91" s="3">
-        <v>-9200</v>
+        <v>-6800</v>
       </c>
       <c r="G91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,32 +3928,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-38100</v>
+        <v>44700</v>
       </c>
       <c r="E94" s="3">
-        <v>-62200</v>
+        <v>-37700</v>
       </c>
       <c r="F94" s="3">
-        <v>-38600</v>
+        <v>-61600</v>
       </c>
       <c r="G94" s="3">
-        <v>-21800</v>
+        <v>-38200</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-21600</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>-200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3771,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-6700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-6600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,32 +4156,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2500</v>
+        <v>16100</v>
       </c>
       <c r="E100" s="3">
-        <v>-21000</v>
+        <v>2400</v>
       </c>
       <c r="F100" s="3">
-        <v>7000</v>
+        <v>-20800</v>
       </c>
       <c r="G100" s="3">
-        <v>86900</v>
+        <v>6900</v>
       </c>
       <c r="H100" s="3">
+        <v>86000</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>1800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3953,33 +4198,36 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-4900</v>
-      </c>
       <c r="F101" s="3">
-        <v>1200</v>
+        <v>-4800</v>
       </c>
       <c r="G101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,32 +4240,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6900</v>
+        <v>27100</v>
       </c>
       <c r="E102" s="3">
-        <v>-61500</v>
+        <v>6800</v>
       </c>
       <c r="F102" s="3">
-        <v>4800</v>
+        <v>-60900</v>
       </c>
       <c r="G102" s="3">
-        <v>99100</v>
+        <v>4700</v>
       </c>
       <c r="H102" s="3">
-        <v>17700</v>
+        <v>98100</v>
       </c>
       <c r="I102" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>17500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>459500</v>
+        <v>445400</v>
       </c>
       <c r="E8" s="3">
-        <v>753900</v>
+        <v>730800</v>
       </c>
       <c r="F8" s="3">
-        <v>828100</v>
+        <v>802700</v>
       </c>
       <c r="G8" s="3">
-        <v>660600</v>
+        <v>640300</v>
       </c>
       <c r="H8" s="3">
-        <v>364100</v>
+        <v>352900</v>
       </c>
       <c r="I8" s="3">
-        <v>124100</v>
+        <v>120300</v>
       </c>
       <c r="J8" s="3">
-        <v>44400</v>
+        <v>43100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>354800</v>
+        <v>343800</v>
       </c>
       <c r="E9" s="3">
-        <v>583600</v>
+        <v>565700</v>
       </c>
       <c r="F9" s="3">
-        <v>674200</v>
+        <v>653400</v>
       </c>
       <c r="G9" s="3">
-        <v>506800</v>
+        <v>491200</v>
       </c>
       <c r="H9" s="3">
-        <v>262000</v>
+        <v>254000</v>
       </c>
       <c r="I9" s="3">
-        <v>85000</v>
+        <v>82400</v>
       </c>
       <c r="J9" s="3">
-        <v>33100</v>
+        <v>32000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>104800</v>
+        <v>101600</v>
       </c>
       <c r="E10" s="3">
-        <v>170300</v>
+        <v>165100</v>
       </c>
       <c r="F10" s="3">
-        <v>153900</v>
+        <v>149200</v>
       </c>
       <c r="G10" s="3">
-        <v>153900</v>
+        <v>149100</v>
       </c>
       <c r="H10" s="3">
-        <v>102000</v>
+        <v>98900</v>
       </c>
       <c r="I10" s="3">
-        <v>39100</v>
+        <v>37900</v>
       </c>
       <c r="J10" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="E12" s="3">
-        <v>44300</v>
+        <v>43000</v>
       </c>
       <c r="F12" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="G12" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="H12" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="I12" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="J12" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>499000</v>
+        <v>483600</v>
       </c>
       <c r="E17" s="3">
-        <v>744700</v>
+        <v>721900</v>
       </c>
       <c r="F17" s="3">
-        <v>802000</v>
+        <v>777300</v>
       </c>
       <c r="G17" s="3">
-        <v>616400</v>
+        <v>597500</v>
       </c>
       <c r="H17" s="3">
-        <v>352700</v>
+        <v>341800</v>
       </c>
       <c r="I17" s="3">
-        <v>109100</v>
+        <v>105800</v>
       </c>
       <c r="J17" s="3">
-        <v>42400</v>
+        <v>41100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,22 +1096,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-39400</v>
+        <v>-38200</v>
       </c>
       <c r="E18" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="F18" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="G18" s="3">
-        <v>44200</v>
+        <v>42900</v>
       </c>
       <c r="H18" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="I18" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="J18" s="3">
         <v>2000</v>
@@ -1159,13 +1159,13 @@
         <v>1800</v>
       </c>
       <c r="E20" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F20" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H20" s="3">
         <v>1300</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24900</v>
+        <v>-24200</v>
       </c>
       <c r="E21" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="F21" s="3">
-        <v>38700</v>
+        <v>37500</v>
       </c>
       <c r="G21" s="3">
-        <v>51600</v>
+        <v>50000</v>
       </c>
       <c r="H21" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="I21" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="J21" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37600</v>
+        <v>-36400</v>
       </c>
       <c r="E23" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="F23" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="3">
-        <v>48200</v>
+        <v>46700</v>
       </c>
       <c r="H23" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="I23" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="J23" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1324,22 +1324,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="3">
         <v>800</v>
       </c>
       <c r="F24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G24" s="3">
         <v>6200</v>
       </c>
-      <c r="G24" s="3">
-        <v>6400</v>
-      </c>
       <c r="H24" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="3">
         <v>-300</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-40200</v>
+        <v>-38900</v>
       </c>
       <c r="E26" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="F26" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="G26" s="3">
-        <v>41800</v>
+        <v>40500</v>
       </c>
       <c r="H26" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="I26" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="J26" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1450,19 +1450,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-39200</v>
+        <v>-38000</v>
       </c>
       <c r="E27" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="F27" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="G27" s="3">
-        <v>41500</v>
+        <v>40300</v>
       </c>
       <c r="H27" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I27" s="3">
         <v>1100</v>
@@ -1663,13 +1663,13 @@
         <v>-1800</v>
       </c>
       <c r="E32" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="F32" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="H32" s="3">
         <v>-1300</v>
@@ -1702,19 +1702,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-39200</v>
+        <v>-38000</v>
       </c>
       <c r="E33" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="F33" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="G33" s="3">
-        <v>41500</v>
+        <v>40300</v>
       </c>
       <c r="H33" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I33" s="3">
         <v>1100</v>
@@ -1786,19 +1786,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-39200</v>
+        <v>-38000</v>
       </c>
       <c r="E35" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="F35" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="G35" s="3">
-        <v>41500</v>
+        <v>40300</v>
       </c>
       <c r="H35" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I35" s="3">
         <v>1100</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104800</v>
+        <v>101600</v>
       </c>
       <c r="E41" s="3">
-        <v>83400</v>
+        <v>80900</v>
       </c>
       <c r="F41" s="3">
-        <v>71700</v>
+        <v>69500</v>
       </c>
       <c r="G41" s="3">
-        <v>138200</v>
+        <v>134000</v>
       </c>
       <c r="H41" s="3">
-        <v>133700</v>
+        <v>129600</v>
       </c>
       <c r="I41" s="3">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="J41" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1953,19 +1953,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52400</v>
+        <v>50800</v>
       </c>
       <c r="E42" s="3">
-        <v>124900</v>
+        <v>121100</v>
       </c>
       <c r="F42" s="3">
-        <v>100400</v>
+        <v>97300</v>
       </c>
       <c r="G42" s="3">
-        <v>53500</v>
+        <v>51800</v>
       </c>
       <c r="H42" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>95500</v>
+        <v>92600</v>
       </c>
       <c r="E43" s="3">
-        <v>108000</v>
+        <v>104700</v>
       </c>
       <c r="F43" s="3">
-        <v>162400</v>
+        <v>157400</v>
       </c>
       <c r="G43" s="3">
-        <v>150100</v>
+        <v>145500</v>
       </c>
       <c r="H43" s="3">
-        <v>68900</v>
+        <v>66800</v>
       </c>
       <c r="I43" s="3">
-        <v>44300</v>
+        <v>42900</v>
       </c>
       <c r="J43" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>71400</v>
+        <v>69200</v>
       </c>
       <c r="E44" s="3">
-        <v>81900</v>
+        <v>79400</v>
       </c>
       <c r="F44" s="3">
-        <v>62500</v>
+        <v>60500</v>
       </c>
       <c r="G44" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="H44" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="I44" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J44" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30600</v>
+        <v>29600</v>
       </c>
       <c r="E45" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="F45" s="3">
-        <v>19900</v>
+        <v>19300</v>
       </c>
       <c r="G45" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="H45" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="I45" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>354700</v>
+        <v>343800</v>
       </c>
       <c r="E46" s="3">
-        <v>418700</v>
+        <v>405900</v>
       </c>
       <c r="F46" s="3">
-        <v>416800</v>
+        <v>404000</v>
       </c>
       <c r="G46" s="3">
-        <v>413300</v>
+        <v>400600</v>
       </c>
       <c r="H46" s="3">
-        <v>270500</v>
+        <v>262200</v>
       </c>
       <c r="I46" s="3">
-        <v>94600</v>
+        <v>91700</v>
       </c>
       <c r="J46" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2163,13 +2163,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F47" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2205,16 +2205,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44300</v>
+        <v>42900</v>
       </c>
       <c r="E48" s="3">
-        <v>32100</v>
+        <v>31200</v>
       </c>
       <c r="F48" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="G48" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="H48" s="3">
         <v>1600</v>
@@ -2373,19 +2373,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E52" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="F52" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G52" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>410200</v>
+        <v>397600</v>
       </c>
       <c r="E54" s="3">
-        <v>465800</v>
+        <v>451500</v>
       </c>
       <c r="F54" s="3">
-        <v>452000</v>
+        <v>438100</v>
       </c>
       <c r="G54" s="3">
-        <v>429600</v>
+        <v>416400</v>
       </c>
       <c r="H54" s="3">
-        <v>273400</v>
+        <v>265000</v>
       </c>
       <c r="I54" s="3">
-        <v>95500</v>
+        <v>92500</v>
       </c>
       <c r="J54" s="3">
-        <v>40100</v>
+        <v>38800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>120000</v>
+        <v>116300</v>
       </c>
       <c r="E57" s="3">
-        <v>152000</v>
+        <v>147300</v>
       </c>
       <c r="F57" s="3">
-        <v>142300</v>
+        <v>138000</v>
       </c>
       <c r="G57" s="3">
-        <v>148300</v>
+        <v>143700</v>
       </c>
       <c r="H57" s="3">
-        <v>78000</v>
+        <v>75600</v>
       </c>
       <c r="I57" s="3">
-        <v>41500</v>
+        <v>40200</v>
       </c>
       <c r="J57" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="G58" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
       </c>
       <c r="I58" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="J58" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64100</v>
+        <v>62200</v>
       </c>
       <c r="E59" s="3">
-        <v>73900</v>
+        <v>71600</v>
       </c>
       <c r="F59" s="3">
-        <v>72300</v>
+        <v>70100</v>
       </c>
       <c r="G59" s="3">
-        <v>66600</v>
+        <v>64600</v>
       </c>
       <c r="H59" s="3">
-        <v>42300</v>
+        <v>41000</v>
       </c>
       <c r="I59" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="J59" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>188600</v>
+        <v>182800</v>
       </c>
       <c r="E60" s="3">
-        <v>226700</v>
+        <v>219700</v>
       </c>
       <c r="F60" s="3">
-        <v>232300</v>
+        <v>225100</v>
       </c>
       <c r="G60" s="3">
-        <v>232100</v>
+        <v>225000</v>
       </c>
       <c r="H60" s="3">
-        <v>121100</v>
+        <v>117300</v>
       </c>
       <c r="I60" s="3">
-        <v>61500</v>
+        <v>59600</v>
       </c>
       <c r="J60" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,10 +2703,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="E61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2748,13 +2748,13 @@
         <v>2100</v>
       </c>
       <c r="E62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F62" s="3">
         <v>2100</v>
       </c>
       <c r="G62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>206500</v>
+        <v>200200</v>
       </c>
       <c r="E66" s="3">
-        <v>231600</v>
+        <v>224500</v>
       </c>
       <c r="F66" s="3">
-        <v>234900</v>
+        <v>227700</v>
       </c>
       <c r="G66" s="3">
-        <v>235100</v>
+        <v>227800</v>
       </c>
       <c r="H66" s="3">
-        <v>121600</v>
+        <v>117800</v>
       </c>
       <c r="I66" s="3">
-        <v>61500</v>
+        <v>59600</v>
       </c>
       <c r="J66" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="J70" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="E72" s="3">
-        <v>64000</v>
+        <v>62000</v>
       </c>
       <c r="F72" s="3">
-        <v>51600</v>
+        <v>50000</v>
       </c>
       <c r="G72" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="H72" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="I72" s="3">
-        <v>-22900</v>
+        <v>-22200</v>
       </c>
       <c r="J72" s="3">
-        <v>-35200</v>
+        <v>-34200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>203700</v>
+        <v>197400</v>
       </c>
       <c r="E76" s="3">
-        <v>234200</v>
+        <v>227000</v>
       </c>
       <c r="F76" s="3">
-        <v>217100</v>
+        <v>210400</v>
       </c>
       <c r="G76" s="3">
-        <v>194600</v>
+        <v>188600</v>
       </c>
       <c r="H76" s="3">
-        <v>151800</v>
+        <v>147100</v>
       </c>
       <c r="I76" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="J76" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3440,19 +3440,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-39200</v>
+        <v>-38000</v>
       </c>
       <c r="E81" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="F81" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="G81" s="3">
-        <v>41500</v>
+        <v>40300</v>
       </c>
       <c r="H81" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I81" s="3">
         <v>1100</v>
@@ -3500,16 +3500,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="E83" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="F83" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40400</v>
+        <v>-39200</v>
       </c>
       <c r="E89" s="3">
-        <v>43900</v>
+        <v>42600</v>
       </c>
       <c r="F89" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="G89" s="3">
-        <v>34900</v>
+        <v>33800</v>
       </c>
       <c r="H89" s="3">
-        <v>31600</v>
+        <v>30600</v>
       </c>
       <c r="I89" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="J89" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,19 +3812,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27800</v>
+        <v>-26900</v>
       </c>
       <c r="E91" s="3">
-        <v>-14700</v>
+        <v>-14300</v>
       </c>
       <c r="F91" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="G91" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -3938,19 +3938,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>44700</v>
+        <v>43300</v>
       </c>
       <c r="E94" s="3">
-        <v>-37700</v>
+        <v>-36600</v>
       </c>
       <c r="F94" s="3">
-        <v>-61600</v>
+        <v>-59700</v>
       </c>
       <c r="G94" s="3">
-        <v>-38200</v>
+        <v>-37100</v>
       </c>
       <c r="H94" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4166,19 +4166,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="E100" s="3">
         <v>2400</v>
       </c>
       <c r="F100" s="3">
-        <v>-20800</v>
+        <v>-20200</v>
       </c>
       <c r="G100" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H100" s="3">
-        <v>86000</v>
+        <v>83400</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
@@ -4208,19 +4208,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
         <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="G101" s="3">
         <v>1100</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="E102" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F102" s="3">
-        <v>-60900</v>
+        <v>-59000</v>
       </c>
       <c r="G102" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H102" s="3">
-        <v>98100</v>
+        <v>95100</v>
       </c>
       <c r="I102" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="J102" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VIOT_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>445400</v>
+        <v>446400</v>
       </c>
       <c r="E8" s="3">
-        <v>730800</v>
+        <v>732400</v>
       </c>
       <c r="F8" s="3">
-        <v>802700</v>
+        <v>804400</v>
       </c>
       <c r="G8" s="3">
-        <v>640300</v>
+        <v>641700</v>
       </c>
       <c r="H8" s="3">
-        <v>352900</v>
+        <v>353700</v>
       </c>
       <c r="I8" s="3">
-        <v>120300</v>
+        <v>120600</v>
       </c>
       <c r="J8" s="3">
-        <v>43100</v>
+        <v>43200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>343800</v>
+        <v>344600</v>
       </c>
       <c r="E9" s="3">
-        <v>565700</v>
+        <v>566900</v>
       </c>
       <c r="F9" s="3">
-        <v>653400</v>
+        <v>654900</v>
       </c>
       <c r="G9" s="3">
-        <v>491200</v>
+        <v>492300</v>
       </c>
       <c r="H9" s="3">
-        <v>254000</v>
+        <v>254500</v>
       </c>
       <c r="I9" s="3">
-        <v>82400</v>
+        <v>82600</v>
       </c>
       <c r="J9" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>101600</v>
+        <v>101800</v>
       </c>
       <c r="E10" s="3">
-        <v>165100</v>
+        <v>165400</v>
       </c>
       <c r="F10" s="3">
-        <v>149200</v>
+        <v>149500</v>
       </c>
       <c r="G10" s="3">
-        <v>149100</v>
+        <v>149500</v>
       </c>
       <c r="H10" s="3">
-        <v>98900</v>
+        <v>99100</v>
       </c>
       <c r="I10" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="J10" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -871,19 +871,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="E12" s="3">
-        <v>43000</v>
+        <v>43100</v>
       </c>
       <c r="F12" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="G12" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="H12" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="I12" s="3">
         <v>8400</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>483600</v>
+        <v>484700</v>
       </c>
       <c r="E17" s="3">
-        <v>721900</v>
+        <v>723400</v>
       </c>
       <c r="F17" s="3">
-        <v>777300</v>
+        <v>779000</v>
       </c>
       <c r="G17" s="3">
-        <v>597500</v>
+        <v>598800</v>
       </c>
       <c r="H17" s="3">
-        <v>341800</v>
+        <v>342600</v>
       </c>
       <c r="I17" s="3">
-        <v>105800</v>
+        <v>106000</v>
       </c>
       <c r="J17" s="3">
-        <v>41100</v>
+        <v>41200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,22 +1096,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-38200</v>
+        <v>-38300</v>
       </c>
       <c r="E18" s="3">
         <v>8900</v>
       </c>
       <c r="F18" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="G18" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="H18" s="3">
         <v>11100</v>
       </c>
       <c r="I18" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="J18" s="3">
         <v>2000</v>
@@ -1198,19 +1198,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-24200</v>
+        <v>-24300</v>
       </c>
       <c r="E21" s="3">
         <v>23000</v>
       </c>
       <c r="F21" s="3">
-        <v>37500</v>
+        <v>37600</v>
       </c>
       <c r="G21" s="3">
-        <v>50000</v>
+        <v>50100</v>
       </c>
       <c r="H21" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="I21" s="3">
         <v>15100</v>
@@ -1282,16 +1282,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-36400</v>
+        <v>-36500</v>
       </c>
       <c r="E23" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="F23" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="G23" s="3">
-        <v>46700</v>
+        <v>46800</v>
       </c>
       <c r="H23" s="3">
         <v>12300</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-38900</v>
+        <v>-39000</v>
       </c>
       <c r="E26" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="F26" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="G26" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="H26" s="3">
         <v>9000</v>
       </c>
       <c r="I26" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="J26" s="3">
         <v>2200</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>101600</v>
+        <v>101800</v>
       </c>
       <c r="E41" s="3">
-        <v>80900</v>
+        <v>81000</v>
       </c>
       <c r="F41" s="3">
-        <v>69500</v>
+        <v>69600</v>
       </c>
       <c r="G41" s="3">
-        <v>134000</v>
+        <v>134300</v>
       </c>
       <c r="H41" s="3">
-        <v>129600</v>
+        <v>129800</v>
       </c>
       <c r="I41" s="3">
-        <v>38600</v>
+        <v>38700</v>
       </c>
       <c r="J41" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1953,16 +1953,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>50800</v>
+        <v>50900</v>
       </c>
       <c r="E42" s="3">
-        <v>121100</v>
+        <v>121400</v>
       </c>
       <c r="F42" s="3">
-        <v>97300</v>
+        <v>97500</v>
       </c>
       <c r="G42" s="3">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="H42" s="3">
         <v>23300</v>
@@ -1995,22 +1995,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>92600</v>
+        <v>92800</v>
       </c>
       <c r="E43" s="3">
-        <v>104700</v>
+        <v>104900</v>
       </c>
       <c r="F43" s="3">
-        <v>157400</v>
+        <v>157700</v>
       </c>
       <c r="G43" s="3">
-        <v>145500</v>
+        <v>145800</v>
       </c>
       <c r="H43" s="3">
-        <v>66800</v>
+        <v>67000</v>
       </c>
       <c r="I43" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="J43" s="3">
         <v>11100</v>
@@ -2037,16 +2037,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69200</v>
+        <v>69400</v>
       </c>
       <c r="E44" s="3">
-        <v>79400</v>
+        <v>79600</v>
       </c>
       <c r="F44" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="G44" s="3">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="H44" s="3">
         <v>32000</v>
@@ -2079,19 +2079,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="E45" s="3">
         <v>19800</v>
       </c>
       <c r="F45" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="G45" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="H45" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="I45" s="3">
         <v>3200</v>
@@ -2121,22 +2121,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>343800</v>
+        <v>344500</v>
       </c>
       <c r="E46" s="3">
-        <v>405900</v>
+        <v>406800</v>
       </c>
       <c r="F46" s="3">
-        <v>404000</v>
+        <v>404800</v>
       </c>
       <c r="G46" s="3">
-        <v>400600</v>
+        <v>401500</v>
       </c>
       <c r="H46" s="3">
-        <v>262200</v>
+        <v>262700</v>
       </c>
       <c r="I46" s="3">
-        <v>91700</v>
+        <v>91900</v>
       </c>
       <c r="J46" s="3">
         <v>38100</v>
@@ -2205,7 +2205,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="E48" s="3">
         <v>31200</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>397600</v>
+        <v>398500</v>
       </c>
       <c r="E54" s="3">
-        <v>451500</v>
+        <v>452400</v>
       </c>
       <c r="F54" s="3">
-        <v>438100</v>
+        <v>439000</v>
       </c>
       <c r="G54" s="3">
-        <v>416400</v>
+        <v>417300</v>
       </c>
       <c r="H54" s="3">
-        <v>265000</v>
+        <v>265500</v>
       </c>
       <c r="I54" s="3">
-        <v>92500</v>
+        <v>92700</v>
       </c>
       <c r="J54" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2535,22 +2535,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>116300</v>
+        <v>116500</v>
       </c>
       <c r="E57" s="3">
-        <v>147300</v>
+        <v>147600</v>
       </c>
       <c r="F57" s="3">
-        <v>138000</v>
+        <v>138300</v>
       </c>
       <c r="G57" s="3">
-        <v>143700</v>
+        <v>144000</v>
       </c>
       <c r="H57" s="3">
-        <v>75600</v>
+        <v>75700</v>
       </c>
       <c r="I57" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="J57" s="3">
         <v>10100</v>
@@ -2595,7 +2595,7 @@
         <v>5000</v>
       </c>
       <c r="J58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2619,22 +2619,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="E59" s="3">
-        <v>71600</v>
+        <v>71800</v>
       </c>
       <c r="F59" s="3">
-        <v>70100</v>
+        <v>70200</v>
       </c>
       <c r="G59" s="3">
-        <v>64600</v>
+        <v>64700</v>
       </c>
       <c r="H59" s="3">
-        <v>41000</v>
+        <v>41100</v>
       </c>
       <c r="I59" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="J59" s="3">
         <v>4400</v>
@@ -2661,22 +2661,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>182800</v>
+        <v>183200</v>
       </c>
       <c r="E60" s="3">
-        <v>219700</v>
+        <v>220200</v>
       </c>
       <c r="F60" s="3">
-        <v>225100</v>
+        <v>225600</v>
       </c>
       <c r="G60" s="3">
-        <v>225000</v>
+        <v>225500</v>
       </c>
       <c r="H60" s="3">
-        <v>117300</v>
+        <v>117600</v>
       </c>
       <c r="I60" s="3">
-        <v>59600</v>
+        <v>59700</v>
       </c>
       <c r="J60" s="3">
         <v>18900</v>
@@ -2913,22 +2913,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200200</v>
+        <v>200600</v>
       </c>
       <c r="E66" s="3">
-        <v>224500</v>
+        <v>225000</v>
       </c>
       <c r="F66" s="3">
-        <v>227700</v>
+        <v>228200</v>
       </c>
       <c r="G66" s="3">
-        <v>227800</v>
+        <v>228300</v>
       </c>
       <c r="H66" s="3">
-        <v>117800</v>
+        <v>118100</v>
       </c>
       <c r="I66" s="3">
-        <v>59600</v>
+        <v>59800</v>
       </c>
       <c r="J66" s="3">
         <v>18900</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="J70" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3141,16 +3141,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="E72" s="3">
-        <v>62000</v>
+        <v>62100</v>
       </c>
       <c r="F72" s="3">
-        <v>50000</v>
+        <v>50100</v>
       </c>
       <c r="G72" s="3">
-        <v>26900</v>
+        <v>27000</v>
       </c>
       <c r="H72" s="3">
         <v>-13200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>197400</v>
+        <v>197800</v>
       </c>
       <c r="E76" s="3">
-        <v>227000</v>
+        <v>227500</v>
       </c>
       <c r="F76" s="3">
-        <v>210400</v>
+        <v>210900</v>
       </c>
       <c r="G76" s="3">
-        <v>188600</v>
+        <v>189000</v>
       </c>
       <c r="H76" s="3">
-        <v>147100</v>
+        <v>147500</v>
       </c>
       <c r="I76" s="3">
         <v>12100</v>
       </c>
       <c r="J76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3503,13 +3503,13 @@
         <v>12200</v>
       </c>
       <c r="E83" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="F83" s="3">
         <v>7500</v>
       </c>
       <c r="G83" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3755,16 +3755,16 @@
         <v>-39200</v>
       </c>
       <c r="E89" s="3">
-        <v>42600</v>
+        <v>42700</v>
       </c>
       <c r="F89" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="G89" s="3">
-        <v>33800</v>
+        <v>33900</v>
       </c>
       <c r="H89" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="I89" s="3">
         <v>17100</v>
@@ -3812,7 +3812,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26900</v>
+        <v>-27000</v>
       </c>
       <c r="E91" s="3">
         <v>-14300</v>
@@ -3938,19 +3938,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>43300</v>
+        <v>43400</v>
       </c>
       <c r="E94" s="3">
         <v>-36600</v>
       </c>
       <c r="F94" s="3">
-        <v>-59700</v>
+        <v>-59800</v>
       </c>
       <c r="G94" s="3">
         <v>-37100</v>
       </c>
       <c r="H94" s="3">
-        <v>-20900</v>
+        <v>-21000</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -4166,7 +4166,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="E100" s="3">
         <v>2400</v>
@@ -4178,7 +4178,7 @@
         <v>6700</v>
       </c>
       <c r="H100" s="3">
-        <v>83400</v>
+        <v>83500</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
@@ -4250,22 +4250,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="E102" s="3">
         <v>6600</v>
       </c>
       <c r="F102" s="3">
-        <v>-59000</v>
+        <v>-59100</v>
       </c>
       <c r="G102" s="3">
         <v>4600</v>
       </c>
       <c r="H102" s="3">
-        <v>95100</v>
+        <v>95300</v>
       </c>
       <c r="I102" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="J102" s="3">
         <v>4100</v>
